--- a/Stats/StatsTest.xlsx
+++ b/Stats/StatsTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10033" uniqueCount="4112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10147" uniqueCount="4180">
   <si>
     <t>Player</t>
   </si>
@@ -12348,6 +12348,210 @@
   </si>
   <si>
     <t>make</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_YXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archie_ZYQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_HQC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou_HF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jam_LTJ </t>
+  </si>
+  <si>
+    <t>2pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>3pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Regular Pass</t>
+  </si>
+  <si>
+    <t>Threat Pass</t>
+  </si>
+  <si>
+    <t>Missed Pass</t>
+  </si>
+  <si>
+    <t>shot allowed</t>
+  </si>
+  <si>
+    <t>shot contested</t>
+  </si>
+  <si>
+    <t>Def Reb</t>
+  </si>
+  <si>
+    <t>Off Reb</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off-Ball Screen</t>
+  </si>
+  <si>
+    <t>Screen Assist</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_YXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jam_LTJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_HQC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou_HF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_HQC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_YXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archie_ZYQ </t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2ShortL</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Notes</t>
@@ -12371,7 +12575,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -12399,11 +12603,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -12425,6 +12631,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12434,10 +12642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="4.85546875" customWidth="true"/>
     <col min="3" max="3" width="4.85546875" customWidth="true"/>
     <col min="4" max="4" width="6.28515625" customWidth="true"/>
@@ -12459,84 +12667,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3639</v>
+        <v>4112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3662</v>
+        <v>4118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3675</v>
+        <v>4120</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3694</v>
+        <v>4122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3708</v>
+        <v>4124</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3712</v>
+        <v>4126</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3713</v>
+        <v>4127</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3714</v>
+        <v>4128</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3715</v>
+        <v>4129</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3716</v>
+        <v>4130</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3717</v>
+        <v>4131</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3718</v>
+        <v>4132</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3719</v>
+        <v>4133</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3720</v>
+        <v>4134</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3721</v>
+        <v>4135</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3722</v>
+        <v>4136</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3723</v>
+        <v>4137</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3724</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3640</v>
+        <v>4113</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3663</v>
+        <v>4119</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3676</v>
+        <v>4121</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3695</v>
+        <v>4123</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3709</v>
+        <v>4125</v>
       </c>
       <c r="F2" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -12548,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -12571,25 +12779,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3641</v>
+        <v>4114</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3664</v>
+        <v>4119</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3677</v>
+        <v>4121</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>3695</v>
+        <v>4123</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>3709</v>
+        <v>4125</v>
       </c>
       <c r="F3" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -12607,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -12627,22 +12835,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3642</v>
+        <v>4115</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3665</v>
+        <v>4119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3678</v>
+        <v>4121</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>3696</v>
+        <v>4123</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>3709</v>
+        <v>4125</v>
       </c>
       <c r="F4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -12654,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -12663,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0">
         <v>0</v>
-      </c>
-      <c r="N4" s="0">
-        <v>1</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -12683,25 +12891,25 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3643</v>
+        <v>4116</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3666</v>
+        <v>4119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3678</v>
+        <v>4121</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>3697</v>
+        <v>4123</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>3709</v>
+        <v>4125</v>
       </c>
       <c r="F5" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -12719,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
@@ -12739,28 +12947,28 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3644</v>
+        <v>4117</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3666</v>
+        <v>4119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3678</v>
+        <v>4121</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3697</v>
+        <v>4123</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>3709</v>
+        <v>4125</v>
       </c>
       <c r="F6" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -12769,16 +12977,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0">
         <v>0</v>
-      </c>
-      <c r="L6" s="0">
-        <v>1</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -12790,958 +12998,6 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3645</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>3667</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>3679</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>3709</v>
-      </c>
-      <c r="F7" s="0">
-        <v>27</v>
-      </c>
-      <c r="G7" s="0">
-        <v>3</v>
-      </c>
-      <c r="H7" s="0">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0">
-        <v>2</v>
-      </c>
-      <c r="N7" s="0">
-        <v>4</v>
-      </c>
-      <c r="O7" s="0">
-        <v>1</v>
-      </c>
-      <c r="P7" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3646</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>3668</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>3680</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>3699</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>3710</v>
-      </c>
-      <c r="F8" s="0">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0">
-        <v>1</v>
-      </c>
-      <c r="O8" s="0">
-        <v>1</v>
-      </c>
-      <c r="P8" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3647</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>3668</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>3681</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>3700</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F9" s="0">
-        <v>4</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0">
-        <v>0</v>
-      </c>
-      <c r="O9" s="0">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3648</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>3669</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>3681</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>3701</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F10" s="0">
-        <v>3</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0">
-        <v>1</v>
-      </c>
-      <c r="O10" s="0">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3649</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>3682</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>3702</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F11" s="0">
-        <v>2</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0">
-        <v>0</v>
-      </c>
-      <c r="O11" s="0">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3650</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>3683</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>3703</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F12" s="0">
-        <v>5</v>
-      </c>
-      <c r="G12" s="0">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0">
-        <v>2</v>
-      </c>
-      <c r="N12" s="0">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0">
-        <v>1</v>
-      </c>
-      <c r="P12" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3651</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>3684</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>3703</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F13" s="0">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0">
-        <v>0</v>
-      </c>
-      <c r="O13" s="0">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3652</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>3685</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>3703</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F14" s="0">
-        <v>6</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>2</v>
-      </c>
-      <c r="K14" s="0">
-        <v>0</v>
-      </c>
-      <c r="L14" s="0">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0">
-        <v>0</v>
-      </c>
-      <c r="N14" s="0">
-        <v>0</v>
-      </c>
-      <c r="O14" s="0">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="0">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3653</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>3686</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>3704</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F15" s="0">
-        <v>13</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0">
-        <v>2</v>
-      </c>
-      <c r="L15" s="0">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0">
-        <v>1</v>
-      </c>
-      <c r="N15" s="0">
-        <v>0</v>
-      </c>
-      <c r="O15" s="0">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="0">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3654</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>3687</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>3705</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F16" s="0">
-        <v>7</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3655</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>3688</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>3706</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F17" s="0">
-        <v>5</v>
-      </c>
-      <c r="G17" s="0">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>2</v>
-      </c>
-      <c r="K17" s="0">
-        <v>3</v>
-      </c>
-      <c r="L17" s="0">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0">
-        <v>3</v>
-      </c>
-      <c r="N17" s="0">
-        <v>1</v>
-      </c>
-      <c r="O17" s="0">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="0">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>3656</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>3671</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>3688</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>3706</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F18" s="0">
-        <v>5</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0">
-        <v>0</v>
-      </c>
-      <c r="L18" s="0">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0">
-        <v>0</v>
-      </c>
-      <c r="N18" s="0">
-        <v>2</v>
-      </c>
-      <c r="O18" s="0">
-        <v>1</v>
-      </c>
-      <c r="P18" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="0">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3657</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>3672</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>3707</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F19" s="0">
-        <v>17</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0">
-        <v>0</v>
-      </c>
-      <c r="N19" s="0">
-        <v>0</v>
-      </c>
-      <c r="O19" s="0">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="0">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>3658</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>3672</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>3690</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>3707</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F20" s="0">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0">
-        <v>0</v>
-      </c>
-      <c r="L20" s="0">
-        <v>0</v>
-      </c>
-      <c r="M20" s="0">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0">
-        <v>0</v>
-      </c>
-      <c r="O20" s="0">
-        <v>0</v>
-      </c>
-      <c r="P20" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="0">
-        <v>0</v>
-      </c>
-      <c r="R20" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>3659</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>3673</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>3691</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>3707</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F21" s="0">
-        <v>4</v>
-      </c>
-      <c r="G21" s="0">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0">
-        <v>0</v>
-      </c>
-      <c r="K21" s="0">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0">
-        <v>0</v>
-      </c>
-      <c r="M21" s="0">
-        <v>0</v>
-      </c>
-      <c r="N21" s="0">
-        <v>0</v>
-      </c>
-      <c r="O21" s="0">
-        <v>0</v>
-      </c>
-      <c r="P21" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="0">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>3660</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>3674</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>3692</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>3707</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F22" s="0">
-        <v>5</v>
-      </c>
-      <c r="G22" s="0">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0">
-        <v>0</v>
-      </c>
-      <c r="M22" s="0">
-        <v>0</v>
-      </c>
-      <c r="N22" s="0">
-        <v>0</v>
-      </c>
-      <c r="O22" s="0">
-        <v>0</v>
-      </c>
-      <c r="P22" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0">
-        <v>1</v>
-      </c>
-      <c r="R22" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>3661</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>3674</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>3693</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>3707</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>3711</v>
-      </c>
-      <c r="F23" s="0">
-        <v>10</v>
-      </c>
-      <c r="G23" s="0">
-        <v>3</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0</v>
-      </c>
-      <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" s="0">
-        <v>0</v>
-      </c>
-      <c r="L23" s="0">
-        <v>0</v>
-      </c>
-      <c r="M23" s="0">
-        <v>0</v>
-      </c>
-      <c r="N23" s="0">
-        <v>0</v>
-      </c>
-      <c r="O23" s="0">
-        <v>0</v>
-      </c>
-      <c r="P23" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="0">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0">
         <v>0</v>
       </c>
     </row>
@@ -13751,4538 +13007,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="true"/>
-    <col min="2" max="2" width="13" customWidth="true"/>
-    <col min="3" max="3" width="9.140625" customWidth="true"/>
-    <col min="4" max="4" width="14.28515625" customWidth="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.42578125" customWidth="true"/>
+    <col min="4" max="4" width="10.140625" customWidth="true"/>
     <col min="5" max="5" width="7.42578125" customWidth="true"/>
     <col min="6" max="6" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3725</v>
+        <v>4139</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3747</v>
+        <v>4143</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3870</v>
+        <v>4151</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3945</v>
+        <v>4164</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4062</v>
+        <v>4177</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4111</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3726</v>
+        <v>4140</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3748</v>
+        <v>4144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3871</v>
+        <v>4152</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3946</v>
+        <v>4165</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4063</v>
+        <v>4178</v>
       </c>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3726</v>
+        <v>4140</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3748</v>
+        <v>4144</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3871</v>
+        <v>4153</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>3946</v>
+        <v>4166</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>4063</v>
+        <v>4178</v>
       </c>
       <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3748</v>
+        <v>4145</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3872</v>
+        <v>4154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>3947</v>
-      </c>
-      <c r="E4" s="0"/>
+        <v>4167</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3749</v>
+        <v>4145</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3873</v>
+        <v>4155</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>3948</v>
-      </c>
-      <c r="E5" s="0"/>
+        <v>4168</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3749</v>
+        <v>4145</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3873</v>
+        <v>4156</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3948</v>
-      </c>
-      <c r="E6" s="0"/>
+        <v>4169</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3749</v>
+        <v>4146</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3873</v>
+        <v>4157</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>3949</v>
-      </c>
-      <c r="E7" s="0"/>
+        <v>4170</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3749</v>
+        <v>4147</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3874</v>
+        <v>4158</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>3950</v>
-      </c>
-      <c r="E8" s="0"/>
+        <v>4171</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3749</v>
+        <v>4147</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3874</v>
+        <v>4159</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>3950</v>
-      </c>
-      <c r="E9" s="0"/>
+        <v>4172</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3726</v>
+        <v>4141</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3750</v>
+        <v>4148</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>3875</v>
+        <v>4160</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>3951</v>
+        <v>4173</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>4064</v>
+        <v>4178</v>
       </c>
       <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3726</v>
+        <v>4142</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3750</v>
+        <v>4149</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3876</v>
+        <v>4161</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>3952</v>
-      </c>
-      <c r="E11" s="0"/>
+        <v>4173</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3726</v>
+        <v>4142</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3750</v>
+        <v>4150</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3876</v>
+        <v>4162</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>3952</v>
-      </c>
-      <c r="E12" s="0"/>
+        <v>4174</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3726</v>
+        <v>4142</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3751</v>
+        <v>4150</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>3877</v>
+        <v>4162</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>3953</v>
-      </c>
-      <c r="E13" s="0"/>
+        <v>4175</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3726</v>
+        <v>4142</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3751</v>
+        <v>4150</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>3877</v>
+        <v>4163</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>3953</v>
-      </c>
-      <c r="E14" s="0"/>
+        <v>4176</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>4178</v>
+      </c>
       <c r="F14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>3751</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>3877</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>3953</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>3751</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>3877</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>3953</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>3751</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>3954</v>
-      </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>3751</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>3879</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>3955</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>3752</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>3880</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>3956</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>4065</v>
-      </c>
-      <c r="F19" s="0"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>3752</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>3881</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>3957</v>
-      </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>3753</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>3882</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>3958</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>4065</v>
-      </c>
-      <c r="F21" s="0"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>3753</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>3882</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>3959</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>4066</v>
-      </c>
-      <c r="F22" s="0"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>3753</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>3882</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>3960</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>4066</v>
-      </c>
-      <c r="F23" s="0"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>3753</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>3883</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>3961</v>
-      </c>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>3754</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>3755</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>3757</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>3759</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>3759</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>3759</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>3760</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>3760</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>3760</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>3760</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>3761</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>3761</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>3763</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E87" s="0"/>
-      <c r="F87" s="0"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E88" s="0"/>
-      <c r="F88" s="0"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E89" s="0"/>
-      <c r="F89" s="0"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E90" s="0"/>
-      <c r="F90" s="0"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E91" s="0"/>
-      <c r="F91" s="0"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E92" s="0"/>
-      <c r="F92" s="0"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E93" s="0"/>
-      <c r="F93" s="0"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>3766</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>3766</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>3766</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>3766</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>3767</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>3767</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>3768</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>3768</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>3768</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E109" s="0"/>
-      <c r="F109" s="0"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>3768</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>3768</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E111" s="0"/>
-      <c r="F111" s="0"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>3769</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>3769</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>3769</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E114" s="0"/>
-      <c r="F114" s="0"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>3769</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E115" s="0"/>
-      <c r="F115" s="0"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>3769</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E116" s="0"/>
-      <c r="F116" s="0"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>3769</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E117" s="0"/>
-      <c r="F117" s="0"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>3770</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E118" s="0"/>
-      <c r="F118" s="0"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>3771</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E119" s="0"/>
-      <c r="F119" s="0"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>3771</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E120" s="0"/>
-      <c r="F120" s="0"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>3771</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E121" s="0"/>
-      <c r="F121" s="0"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>3771</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E122" s="0"/>
-      <c r="F122" s="0"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E126" s="0"/>
-      <c r="F126" s="0"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>3773</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>3773</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E129" s="0"/>
-      <c r="F129" s="0"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>3773</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E130" s="0"/>
-      <c r="F130" s="0"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>3773</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E131" s="0"/>
-      <c r="F131" s="0"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>3773</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E132" s="0"/>
-      <c r="F132" s="0"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>3774</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E133" s="0"/>
-      <c r="F133" s="0"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>3774</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>3962</v>
-      </c>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>3775</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E135" s="0"/>
-      <c r="F135" s="0"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>3776</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>3776</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E137" s="0"/>
-      <c r="F137" s="0"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>3777</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>3777</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>3777</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>3778</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E141" s="0"/>
-      <c r="F141" s="0"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>3779</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>3780</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>3963</v>
-      </c>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>3780</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>3964</v>
-      </c>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>3781</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>3885</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>3965</v>
-      </c>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>3782</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>3966</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>4067</v>
-      </c>
-      <c r="F146" s="0"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>3783</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>3967</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>4068</v>
-      </c>
-      <c r="F147" s="0"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>3783</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>3968</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>4068</v>
-      </c>
-      <c r="F148" s="0"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>3784</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>3969</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>4068</v>
-      </c>
-      <c r="F149" s="0"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>3785</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>3970</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>4069</v>
-      </c>
-      <c r="F150" s="0"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>3786</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>3971</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>4070</v>
-      </c>
-      <c r="F151" s="0"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>3786</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>3972</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>4070</v>
-      </c>
-      <c r="F152" s="0"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>3786</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>3972</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>4070</v>
-      </c>
-      <c r="F153" s="0"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>3973</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>4071</v>
-      </c>
-      <c r="F154" s="0"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>3973</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>4071</v>
-      </c>
-      <c r="F155" s="0"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>3974</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>4072</v>
-      </c>
-      <c r="F156" s="0"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>3975</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>4072</v>
-      </c>
-      <c r="F157" s="0"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>3976</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>4072</v>
-      </c>
-      <c r="F158" s="0"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>3977</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>4073</v>
-      </c>
-      <c r="F159" s="0"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>3788</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>3977</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>4073</v>
-      </c>
-      <c r="F160" s="0"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>3788</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>3978</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F161" s="0"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>3789</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>3979</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F162" s="0"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>3789</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>3980</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F163" s="0"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>3789</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>3981</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F164" s="0"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>3789</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>3982</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F165" s="0"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>3789</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>3983</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F166" s="0"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F167" s="0"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>3791</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>3985</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F168" s="0"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>3792</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>3986</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F169" s="0"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>3792</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>3986</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="F170" s="0"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>3793</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>3987</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>4075</v>
-      </c>
-      <c r="F171" s="0"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>3793</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>3988</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>4076</v>
-      </c>
-      <c r="F172" s="0"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E173" s="0"/>
-      <c r="F173" s="0"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E174" s="0"/>
-      <c r="F174" s="0"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>3990</v>
-      </c>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>3991</v>
-      </c>
-      <c r="E176" s="0"/>
-      <c r="F176" s="0"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>3795</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>3992</v>
-      </c>
-      <c r="E177" s="0"/>
-      <c r="F177" s="0"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>3796</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>3992</v>
-      </c>
-      <c r="E178" s="0"/>
-      <c r="F178" s="0"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>3797</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>3888</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>3993</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F179" s="0"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>3798</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>3888</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>3993</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F180" s="0"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>3799</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>3888</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>3993</v>
-      </c>
-      <c r="E181" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F181" s="0"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>3800</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>3889</v>
-      </c>
-      <c r="D182" s="0" t="s">
-        <v>3994</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F182" s="0"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>3727</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>3890</v>
-      </c>
-      <c r="D183" s="0" t="s">
-        <v>3995</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F183" s="0"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>3727</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>3891</v>
-      </c>
-      <c r="D184" s="0" t="s">
-        <v>3996</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>4078</v>
-      </c>
-      <c r="F184" s="0"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>3728</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>3802</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>3892</v>
-      </c>
-      <c r="D185" s="0" t="s">
-        <v>3997</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>4079</v>
-      </c>
-      <c r="F185" s="0"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>3728</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>3802</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>3893</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>3998</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>4079</v>
-      </c>
-      <c r="F186" s="0"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>3728</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>3803</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>3894</v>
-      </c>
-      <c r="D187" s="0" t="s">
-        <v>3999</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>4080</v>
-      </c>
-      <c r="F187" s="0"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>3804</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D188" s="0" t="s">
-        <v>4000</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>4081</v>
-      </c>
-      <c r="F188" s="0"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>3805</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>4000</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>4081</v>
-      </c>
-      <c r="F189" s="0"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>3806</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>4000</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>4081</v>
-      </c>
-      <c r="F190" s="0"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>3807</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>4001</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>4081</v>
-      </c>
-      <c r="F191" s="0"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>3808</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>3896</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>4002</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>4082</v>
-      </c>
-      <c r="F192" s="0"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>3730</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>3809</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>3897</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>4003</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>4083</v>
-      </c>
-      <c r="F193" s="0"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>3730</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>3810</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>3897</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>4004</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>4083</v>
-      </c>
-      <c r="F194" s="0"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>3730</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>3811</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>3898</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>4005</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>4084</v>
-      </c>
-      <c r="F195" s="0"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>3812</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>3899</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>4006</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>4085</v>
-      </c>
-      <c r="F196" s="0"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>3813</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>3899</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>4006</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>4085</v>
-      </c>
-      <c r="F197" s="0"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>3814</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>3900</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>4007</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>4086</v>
-      </c>
-      <c r="F198" s="0"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>3815</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>3901</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>4008</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>4087</v>
-      </c>
-      <c r="F199" s="0"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>3815</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>3902</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>4009</v>
-      </c>
-      <c r="E200" s="0" t="s">
-        <v>4087</v>
-      </c>
-      <c r="F200" s="0"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>3816</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>3902</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>4009</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>4087</v>
-      </c>
-      <c r="F201" s="0"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>3817</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>3903</v>
-      </c>
-      <c r="D202" s="0" t="s">
-        <v>4010</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>4088</v>
-      </c>
-      <c r="F202" s="0"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>3732</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>3818</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>3904</v>
-      </c>
-      <c r="D203" s="0" t="s">
-        <v>4011</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>4089</v>
-      </c>
-      <c r="F203" s="0"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>3732</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>3818</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>3905</v>
-      </c>
-      <c r="D204" s="0" t="s">
-        <v>4012</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>4089</v>
-      </c>
-      <c r="F204" s="0"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>3819</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>3906</v>
-      </c>
-      <c r="D205" s="0" t="s">
-        <v>4013</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>4089</v>
-      </c>
-      <c r="F205" s="0"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>3820</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>3906</v>
-      </c>
-      <c r="D206" s="0" t="s">
-        <v>4013</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>4089</v>
-      </c>
-      <c r="F206" s="0"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>3821</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>3907</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>4014</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>4090</v>
-      </c>
-      <c r="F207" s="0"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>3822</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>3908</v>
-      </c>
-      <c r="D208" s="0" t="s">
-        <v>4015</v>
-      </c>
-      <c r="E208" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F208" s="0"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>3822</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>4016</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F209" s="0"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>3823</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>4017</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F210" s="0"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>3823</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>4018</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F211" s="0"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>3824</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>4018</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F212" s="0"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>3825</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>4018</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F213" s="0"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>3826</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>4019</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="F214" s="0"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>3827</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>3910</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>4020</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>4092</v>
-      </c>
-      <c r="F215" s="0"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>3734</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>3828</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>3911</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>4021</v>
-      </c>
-      <c r="E216" s="0" t="s">
-        <v>4093</v>
-      </c>
-      <c r="F216" s="0"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>3734</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>3828</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>3912</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>4093</v>
-      </c>
-      <c r="F217" s="0"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>3734</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>3829</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>3913</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>4023</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>4094</v>
-      </c>
-      <c r="F218" s="0"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>3830</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>3914</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>4024</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F219" s="0"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>3830</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>4025</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F220" s="0"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>3831</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>4025</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F221" s="0"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>3832</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>4025</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F222" s="0"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>3833</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>4026</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F223" s="0"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>3834</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>4027</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F224" s="0"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>3835</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>4027</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F225" s="0"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>3836</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>4027</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="F226" s="0"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>3837</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>3916</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>4028</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>4096</v>
-      </c>
-      <c r="F227" s="0"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>3837</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>3917</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>4029</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F228" s="0"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>3837</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F229" s="0"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>3838</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F230" s="0"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>3839</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F231" s="0"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>3840</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F232" s="0"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>3841</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>4031</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F233" s="0"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>3736</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>3842</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>3919</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>4032</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F234" s="0"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>3736</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>3842</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>3920</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>4033</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F235" s="0"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>3736</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>3843</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>3921</v>
-      </c>
-      <c r="D236" s="0" t="s">
-        <v>4034</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>4098</v>
-      </c>
-      <c r="F236" s="0"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>3844</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D237" s="0" t="s">
-        <v>4035</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>4099</v>
-      </c>
-      <c r="F237" s="0"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>3845</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D238" s="0" t="s">
-        <v>4035</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>4099</v>
-      </c>
-      <c r="F238" s="0"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>3846</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>4036</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>4099</v>
-      </c>
-      <c r="F239" s="0"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>3847</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>3923</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>4037</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>4100</v>
-      </c>
-      <c r="F240" s="0"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
-        <v>3738</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>3848</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>3924</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>4038</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>4101</v>
-      </c>
-      <c r="F241" s="0"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
-        <v>3738</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>3848</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>3925</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>4039</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>4101</v>
-      </c>
-      <c r="F242" s="0"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
-        <v>3738</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>3849</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>3925</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>4039</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>4101</v>
-      </c>
-      <c r="F243" s="0"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
-        <v>3738</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>3850</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>3925</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>4040</v>
-      </c>
-      <c r="E244" s="0" t="s">
-        <v>4101</v>
-      </c>
-      <c r="F244" s="0"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
-        <v>3738</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>3851</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>3926</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>4041</v>
-      </c>
-      <c r="E245" s="0" t="s">
-        <v>4102</v>
-      </c>
-      <c r="F245" s="0"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
-        <v>3739</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>3852</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>4042</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F246" s="0"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
-        <v>3739</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>3853</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>3928</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>4043</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F247" s="0"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
-        <v>3740</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>3854</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>4044</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F248" s="0"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
-        <v>3740</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>3854</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>3930</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>4045</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F249" s="0"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
-        <v>3740</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>3855</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>3930</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>4045</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F250" s="0"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
-        <v>3740</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>3856</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>4046</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>4104</v>
-      </c>
-      <c r="F251" s="0"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
-        <v>3741</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>3857</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>3932</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>4047</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>4105</v>
-      </c>
-      <c r="F252" s="0"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
-        <v>3741</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>3857</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>3933</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>4048</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>4105</v>
-      </c>
-      <c r="F253" s="0"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
-        <v>3741</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>3858</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>3934</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>4049</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>4106</v>
-      </c>
-      <c r="F254" s="0"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
-        <v>3742</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>3859</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>3935</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>4050</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>4107</v>
-      </c>
-      <c r="F255" s="0"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
-        <v>3742</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>3860</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>3935</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>4050</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>4107</v>
-      </c>
-      <c r="F256" s="0"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
-        <v>3742</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>3861</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>3936</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>4051</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>4107</v>
-      </c>
-      <c r="F257" s="0"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
-        <v>3743</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>3862</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>3937</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>4052</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>4107</v>
-      </c>
-      <c r="F258" s="0"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
-        <v>3743</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>3862</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>3938</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>4053</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>4108</v>
-      </c>
-      <c r="F259" s="0"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
-        <v>3744</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>3863</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>3939</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>4054</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F260" s="0"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="0" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>3864</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>3940</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>4055</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F261" s="0"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="0" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>3864</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>4056</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F262" s="0"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>3865</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>4057</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F263" s="0"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="0" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>3866</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>3942</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>4058</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F264" s="0"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="0" t="s">
-        <v>3746</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>3867</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>3943</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>4059</v>
-      </c>
-      <c r="E265" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F265" s="0"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="0" t="s">
-        <v>3746</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>3868</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>3943</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>4060</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F266" s="0"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="0" t="s">
-        <v>3746</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>3869</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>3944</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>4061</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>4110</v>
-      </c>
-      <c r="F267" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Stats/StatsTest.xlsx
+++ b/Stats/StatsTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13680" uniqueCount="6258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15209" uniqueCount="6876">
   <si>
     <t>Player</t>
   </si>
@@ -18786,6 +18786,1860 @@
   </si>
   <si>
     <t>make</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_YXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob_BKZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA_LCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chione_XCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JimLit_XQH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma_Liyan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael_CBC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo_LWQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole_LXR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tang_Yifeng </t>
+  </si>
+  <si>
+    <t>2pt</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>5 / 6</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>2 / 2</t>
+  </si>
+  <si>
+    <t>3 / 4</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>1 / 3</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>3pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>1 / 5</t>
+  </si>
+  <si>
+    <t>3 / 6</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>1 / 4</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>1 / 3</t>
+  </si>
+  <si>
+    <t>0 / 3</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>2 / 3</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>4 / 4</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Regular Pass</t>
+  </si>
+  <si>
+    <t>Threat Pass</t>
+  </si>
+  <si>
+    <t>Missed Pass</t>
+  </si>
+  <si>
+    <t>shot allowed</t>
+  </si>
+  <si>
+    <t>shot contested</t>
+  </si>
+  <si>
+    <t>Def Reb</t>
+  </si>
+  <si>
+    <t>Off Reb</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off-Ball Screen</t>
+  </si>
+  <si>
+    <t>Screen Assist</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_YXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob_BKZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA_LCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chione_XCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JimLit_XQH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma_Liyan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael_CBC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo_LWQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole_LXR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tang_Yifeng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_YXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob_BKZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA_LCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chione_XCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JimLit_XQH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma_Liyan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael_CBC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo_LWQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole_LXR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tang_Yifeng </t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongTop</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>2ShortR</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3LC</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>2LongRW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>3LW</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongTop</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3LW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2ShortR</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Notes</t>
@@ -18809,7 +20663,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -18843,11 +20697,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -18875,6 +20731,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18884,7 +20742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="true"/>
@@ -18909,75 +20767,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5351</v>
+        <v>6258</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5363</v>
+        <v>6269</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5373</v>
+        <v>6279</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5383</v>
+        <v>6288</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5395</v>
+        <v>6299</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5397</v>
+        <v>6301</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5398</v>
+        <v>6302</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5399</v>
+        <v>6303</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5400</v>
+        <v>6304</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5401</v>
+        <v>6305</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5402</v>
+        <v>6306</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5403</v>
+        <v>6307</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5404</v>
+        <v>6308</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5405</v>
+        <v>6309</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5406</v>
+        <v>6310</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5407</v>
+        <v>6311</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5408</v>
+        <v>6312</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5409</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5352</v>
+        <v>6259</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5364</v>
+        <v>6270</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5374</v>
+        <v>6280</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5384</v>
+        <v>6289</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F2" s="0">
         <v>22</v>
@@ -19021,19 +20879,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5353</v>
+        <v>6260</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5365</v>
+        <v>6271</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5374</v>
+        <v>6280</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5385</v>
+        <v>6290</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F3" s="0">
         <v>9</v>
@@ -19077,19 +20935,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5354</v>
+        <v>6261</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5366</v>
+        <v>6272</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5375</v>
+        <v>6281</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5386</v>
+        <v>6291</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F4" s="0">
         <v>19</v>
@@ -19133,19 +20991,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5355</v>
+        <v>6262</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5367</v>
+        <v>6273</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5376</v>
+        <v>6282</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5387</v>
+        <v>6292</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F5" s="0">
         <v>15</v>
@@ -19189,22 +21047,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5356</v>
+        <v>6263</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5368</v>
+        <v>6274</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5377</v>
+        <v>6283</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5388</v>
+        <v>6293</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F6" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="0">
         <v>2</v>
@@ -19225,13 +21083,13 @@
         <v>2</v>
       </c>
       <c r="M6" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -19245,22 +21103,22 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5357</v>
+        <v>6264</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5369</v>
+        <v>6275</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5378</v>
+        <v>6284</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5389</v>
+        <v>6294</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -19275,19 +21133,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="0">
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -19301,22 +21159,22 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5358</v>
+        <v>6265</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5369</v>
+        <v>6276</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5379</v>
+        <v>6284</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5390</v>
+        <v>6295</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F8" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -19334,13 +21192,13 @@
         <v>2</v>
       </c>
       <c r="L8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="0">
         <v>1</v>
       </c>
       <c r="N8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -19357,25 +21215,25 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5359</v>
+        <v>6266</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5370</v>
+        <v>6276</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5379</v>
+        <v>6285</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5391</v>
+        <v>6296</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F9" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -19387,22 +21245,22 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" s="0">
         <v>2</v>
       </c>
       <c r="M9" s="0">
+        <v>3</v>
+      </c>
+      <c r="N9" s="0">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0">
         <v>1</v>
       </c>
-      <c r="N9" s="0">
+      <c r="P9" s="0">
         <v>1</v>
-      </c>
-      <c r="O9" s="0">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0">
-        <v>0</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -19413,25 +21271,25 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5360</v>
+        <v>6267</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5370</v>
+        <v>6277</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5380</v>
+        <v>6286</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>5392</v>
+        <v>6297</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F10" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -19443,22 +21301,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L10" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0">
         <v>3</v>
-      </c>
-      <c r="N10" s="0">
-        <v>2</v>
       </c>
       <c r="O10" s="0">
         <v>1</v>
       </c>
       <c r="P10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
@@ -19469,28 +21327,28 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5361</v>
+        <v>6268</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5371</v>
+        <v>6278</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5381</v>
+        <v>6287</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>5393</v>
+        <v>6298</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5396</v>
+        <v>6300</v>
       </c>
       <c r="F11" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="0">
         <v>0</v>
@@ -19505,77 +21363,21 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
+        <v>3</v>
+      </c>
+      <c r="N11" s="0">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0">
         <v>0</v>
       </c>
-      <c r="N11" s="0">
-        <v>3</v>
-      </c>
-      <c r="O11" s="0">
+      <c r="P11" s="0">
         <v>1</v>
-      </c>
-      <c r="P11" s="0">
-        <v>0</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
       </c>
       <c r="R11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>5362</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>5372</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5382</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>5394</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>5396</v>
-      </c>
-      <c r="F12" s="0">
-        <v>7</v>
-      </c>
-      <c r="G12" s="0">
-        <v>2</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0">
-        <v>3</v>
-      </c>
-      <c r="N12" s="0">
-        <v>1</v>
-      </c>
-      <c r="O12" s="0">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0">
         <v>0</v>
       </c>
     </row>
@@ -19598,5259 +21400,5259 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5410</v>
+        <v>6314</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5480</v>
+        <v>6327</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5733</v>
+        <v>6348</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5912</v>
+        <v>6530</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6133</v>
+        <v>6764</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6257</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5411</v>
+        <v>6315</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5481</v>
+        <v>6328</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5734</v>
+        <v>6349</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5913</v>
+        <v>6531</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6134</v>
+        <v>6765</v>
       </c>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5411</v>
+        <v>6315</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5482</v>
+        <v>6328</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5734</v>
+        <v>6349</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5914</v>
+        <v>6531</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6134</v>
+        <v>6765</v>
       </c>
       <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5411</v>
+        <v>6315</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5483</v>
+        <v>6328</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5735</v>
+        <v>6349</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5915</v>
+        <v>6531</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>6135</v>
+        <v>6765</v>
       </c>
       <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5412</v>
+        <v>6315</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5484</v>
+        <v>6328</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5736</v>
+        <v>6349</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5916</v>
+        <v>6531</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6136</v>
+        <v>6765</v>
       </c>
       <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5412</v>
+        <v>6315</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5485</v>
+        <v>6328</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5736</v>
+        <v>6349</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5916</v>
+        <v>6531</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6136</v>
+        <v>6765</v>
       </c>
       <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5412</v>
+        <v>6315</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5486</v>
+        <v>6328</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5736</v>
+        <v>6349</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5916</v>
+        <v>6531</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6136</v>
+        <v>6765</v>
       </c>
       <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5412</v>
+        <v>6315</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5487</v>
+        <v>6328</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5736</v>
+        <v>6349</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5916</v>
+        <v>6532</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>6136</v>
+        <v>6765</v>
       </c>
       <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5412</v>
+        <v>6315</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5488</v>
+        <v>6328</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5737</v>
+        <v>6349</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5917</v>
+        <v>6533</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6137</v>
+        <v>6765</v>
       </c>
       <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5413</v>
+        <v>6315</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5489</v>
+        <v>6328</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5738</v>
+        <v>6349</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>5918</v>
+        <v>6534</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6138</v>
+        <v>6765</v>
       </c>
       <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5413</v>
+        <v>6315</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5490</v>
+        <v>6328</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5738</v>
+        <v>6350</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>5918</v>
+        <v>6535</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6138</v>
+        <v>6766</v>
       </c>
       <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5413</v>
+        <v>6315</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5491</v>
+        <v>6328</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5738</v>
+        <v>6351</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>5918</v>
+        <v>6536</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>6138</v>
+        <v>6767</v>
       </c>
       <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5413</v>
+        <v>6315</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5492</v>
+        <v>6328</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5739</v>
+        <v>6351</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>5919</v>
+        <v>6537</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>6139</v>
+        <v>6767</v>
       </c>
       <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5414</v>
+        <v>6315</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5493</v>
+        <v>6328</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5740</v>
+        <v>6352</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>5920</v>
+        <v>6538</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>6140</v>
+        <v>6767</v>
       </c>
       <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5414</v>
+        <v>6315</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5494</v>
+        <v>6328</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5740</v>
+        <v>6353</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>5920</v>
+        <v>6539</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>6140</v>
+        <v>6767</v>
       </c>
       <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5414</v>
+        <v>6315</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5495</v>
+        <v>6328</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5740</v>
+        <v>6353</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>5920</v>
+        <v>6539</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>6140</v>
+        <v>6767</v>
       </c>
       <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5414</v>
+        <v>6315</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5496</v>
+        <v>6328</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5740</v>
+        <v>6353</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>5920</v>
+        <v>6539</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>6140</v>
+        <v>6767</v>
       </c>
       <c r="F17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5414</v>
+        <v>6315</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5497</v>
+        <v>6328</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5741</v>
+        <v>6354</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5921</v>
+        <v>6540</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>6141</v>
+        <v>6767</v>
       </c>
       <c r="F18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5415</v>
+        <v>6315</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5498</v>
+        <v>6328</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5742</v>
+        <v>6355</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>5922</v>
+        <v>6541</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>6142</v>
+        <v>6767</v>
       </c>
       <c r="F19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5415</v>
+        <v>6315</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5499</v>
+        <v>6328</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5743</v>
+        <v>6356</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>5923</v>
+        <v>6542</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>6142</v>
+        <v>6767</v>
       </c>
       <c r="F20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5416</v>
+        <v>6315</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5500</v>
+        <v>6328</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5744</v>
+        <v>6357</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5924</v>
+        <v>6543</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>6142</v>
+        <v>6767</v>
       </c>
       <c r="F21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5416</v>
+        <v>6315</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5501</v>
+        <v>6328</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5744</v>
+        <v>6357</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>5924</v>
+        <v>6543</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>6142</v>
+        <v>6767</v>
       </c>
       <c r="F22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5416</v>
+        <v>6315</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5502</v>
+        <v>6328</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5744</v>
+        <v>6357</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>5924</v>
+        <v>6544</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>6142</v>
+        <v>6767</v>
       </c>
       <c r="F23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5416</v>
+        <v>6315</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5503</v>
+        <v>6328</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5744</v>
+        <v>6357</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>5924</v>
+        <v>6545</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>6142</v>
+        <v>6767</v>
       </c>
       <c r="F24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5416</v>
+        <v>6315</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5504</v>
+        <v>6328</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5745</v>
+        <v>6358</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>5925</v>
+        <v>6546</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>6143</v>
+        <v>6767</v>
       </c>
       <c r="F25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5417</v>
+        <v>6315</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5505</v>
+        <v>6329</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5746</v>
+        <v>6359</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>5926</v>
+        <v>6547</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>6144</v>
+        <v>6768</v>
       </c>
       <c r="F26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5417</v>
+        <v>6315</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5505</v>
+        <v>6329</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5747</v>
+        <v>6360</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>5927</v>
+        <v>6548</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>6144</v>
+        <v>6769</v>
       </c>
       <c r="F27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5417</v>
+        <v>6315</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5506</v>
+        <v>6329</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5747</v>
+        <v>6361</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>5928</v>
+        <v>6549</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>6144</v>
+        <v>6769</v>
       </c>
       <c r="F28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5417</v>
+        <v>6315</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5507</v>
+        <v>6329</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5748</v>
+        <v>6362</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>5929</v>
+        <v>6550</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>6145</v>
+        <v>6769</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5418</v>
+        <v>6315</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5508</v>
+        <v>6329</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5749</v>
+        <v>6362</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>5930</v>
+        <v>6551</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>6146</v>
+        <v>6769</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5418</v>
+        <v>6315</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5509</v>
+        <v>6329</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5749</v>
+        <v>6363</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>5930</v>
+        <v>6552</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>6146</v>
+        <v>6770</v>
       </c>
       <c r="F31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5418</v>
+        <v>6315</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5510</v>
+        <v>6329</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5749</v>
+        <v>6364</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>5930</v>
+        <v>6553</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>6146</v>
+        <v>6771</v>
       </c>
       <c r="F32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5418</v>
+        <v>6315</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5511</v>
+        <v>6329</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5749</v>
+        <v>6365</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>5930</v>
+        <v>6554</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>6146</v>
+        <v>6772</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5418</v>
+        <v>6315</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5512</v>
+        <v>6329</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5749</v>
+        <v>6365</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>5930</v>
+        <v>6554</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>6146</v>
+        <v>6773</v>
       </c>
       <c r="F34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5418</v>
+        <v>6315</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5513</v>
+        <v>6329</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>5750</v>
+        <v>6366</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>5931</v>
+        <v>6555</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>6146</v>
+        <v>6774</v>
       </c>
       <c r="F35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5419</v>
+        <v>6315</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>5514</v>
+        <v>6329</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5751</v>
+        <v>6367</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5932</v>
+        <v>6556</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>6146</v>
+        <v>6774</v>
       </c>
       <c r="F36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5419</v>
+        <v>6315</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5515</v>
+        <v>6329</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5751</v>
+        <v>6368</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>5933</v>
+        <v>6557</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>6146</v>
+        <v>6774</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5419</v>
+        <v>6315</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>5516</v>
+        <v>6329</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5752</v>
+        <v>6369</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>5934</v>
+        <v>6558</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>6147</v>
+        <v>6774</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5419</v>
+        <v>6315</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>5517</v>
+        <v>6329</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5753</v>
+        <v>6369</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>5935</v>
+        <v>6558</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>6148</v>
+        <v>6774</v>
       </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5419</v>
+        <v>6315</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>5517</v>
+        <v>6329</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>5754</v>
+        <v>6369</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>5936</v>
+        <v>6559</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>6149</v>
+        <v>6774</v>
       </c>
       <c r="F40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>5420</v>
+        <v>6315</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>5518</v>
+        <v>6329</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>5755</v>
+        <v>6370</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>5937</v>
+        <v>6560</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>6150</v>
+        <v>6774</v>
       </c>
       <c r="F41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>5420</v>
+        <v>6315</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>5519</v>
+        <v>6329</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5755</v>
+        <v>6371</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>5937</v>
+        <v>6561</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>6150</v>
+        <v>6774</v>
       </c>
       <c r="F42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>5420</v>
+        <v>6315</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>5520</v>
+        <v>6329</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>5755</v>
+        <v>6371</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>5937</v>
+        <v>6562</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>6150</v>
+        <v>6774</v>
       </c>
       <c r="F43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>5420</v>
+        <v>6315</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>5521</v>
+        <v>6329</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5755</v>
+        <v>6372</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>5938</v>
+        <v>6563</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>6150</v>
+        <v>6775</v>
       </c>
       <c r="F44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>5420</v>
+        <v>6315</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>5522</v>
+        <v>6329</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>5755</v>
+        <v>6373</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>5939</v>
+        <v>6564</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>6150</v>
+        <v>6776</v>
       </c>
       <c r="F45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>5420</v>
+        <v>6315</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>5523</v>
+        <v>6329</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>5756</v>
+        <v>6374</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>5940</v>
+        <v>6565</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>6151</v>
+        <v>6776</v>
       </c>
       <c r="F46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>5421</v>
+        <v>6315</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5524</v>
+        <v>6329</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>5757</v>
+        <v>6375</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>5941</v>
+        <v>6566</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>6152</v>
+        <v>6777</v>
       </c>
       <c r="F47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>5421</v>
+        <v>6315</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>5525</v>
+        <v>6329</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>5757</v>
+        <v>6376</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>5942</v>
+        <v>6567</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>6152</v>
+        <v>6778</v>
       </c>
       <c r="F48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>5421</v>
+        <v>6315</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>5526</v>
+        <v>6329</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>5758</v>
+        <v>6377</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>5943</v>
+        <v>6568</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>6152</v>
+        <v>6778</v>
       </c>
       <c r="F49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>5421</v>
+        <v>6315</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>5527</v>
+        <v>6329</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>5759</v>
+        <v>6378</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>5944</v>
+        <v>6569</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>6153</v>
+        <v>6778</v>
       </c>
       <c r="F50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>5421</v>
+        <v>6315</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>5528</v>
+        <v>6329</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5759</v>
+        <v>6379</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>5944</v>
+        <v>6570</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>6153</v>
+        <v>6779</v>
       </c>
       <c r="F51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>5529</v>
+        <v>6330</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5760</v>
+        <v>6380</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>5945</v>
+        <v>6571</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>5529</v>
+        <v>6330</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5761</v>
+        <v>6380</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>5946</v>
+        <v>6571</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>5530</v>
+        <v>6330</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5761</v>
+        <v>6380</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>5946</v>
+        <v>6571</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>5531</v>
+        <v>6330</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5761</v>
+        <v>6380</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>5946</v>
+        <v>6571</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>5532</v>
+        <v>6330</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5761</v>
+        <v>6380</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>5946</v>
+        <v>6571</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>5533</v>
+        <v>6330</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5761</v>
+        <v>6380</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>5947</v>
+        <v>6571</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>5534</v>
+        <v>6330</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5761</v>
+        <v>6380</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>5948</v>
+        <v>6572</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>6154</v>
+        <v>6780</v>
       </c>
       <c r="F58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>5422</v>
+        <v>6315</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>5535</v>
+        <v>6330</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5762</v>
+        <v>6381</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>5949</v>
+        <v>6573</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>6155</v>
+        <v>6781</v>
       </c>
       <c r="F59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>5423</v>
+        <v>6315</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>5536</v>
+        <v>6330</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>5763</v>
+        <v>6382</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>5950</v>
+        <v>6574</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>6156</v>
+        <v>6782</v>
       </c>
       <c r="F60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>5423</v>
+        <v>6315</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>5537</v>
+        <v>6330</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>5763</v>
+        <v>6383</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>5951</v>
+        <v>6575</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>6156</v>
+        <v>6782</v>
       </c>
       <c r="F61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>5423</v>
+        <v>6315</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>5538</v>
+        <v>6330</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>5764</v>
+        <v>6383</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>5952</v>
+        <v>6575</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>6157</v>
+        <v>6782</v>
       </c>
       <c r="F62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>5539</v>
+        <v>6330</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>5765</v>
+        <v>6384</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>5953</v>
+        <v>6576</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>5539</v>
+        <v>6330</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>5766</v>
+        <v>6385</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>5954</v>
+        <v>6577</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>5540</v>
+        <v>6330</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>5766</v>
+        <v>6385</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>5955</v>
+        <v>6578</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>5541</v>
+        <v>6330</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>5766</v>
+        <v>6386</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>5956</v>
+        <v>6579</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>5542</v>
+        <v>6330</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>5766</v>
+        <v>6387</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>5956</v>
+        <v>6580</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>5543</v>
+        <v>6330</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>5766</v>
+        <v>6387</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>5956</v>
+        <v>6581</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>5544</v>
+        <v>6330</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>5766</v>
+        <v>6387</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>5957</v>
+        <v>6582</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>6158</v>
+        <v>6782</v>
       </c>
       <c r="F69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>5545</v>
+        <v>6330</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>5767</v>
+        <v>6387</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>5958</v>
+        <v>6583</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>6159</v>
+        <v>6782</v>
       </c>
       <c r="F70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>5425</v>
+        <v>6315</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>5546</v>
+        <v>6330</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>5768</v>
+        <v>6387</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>5959</v>
+        <v>6583</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>6160</v>
+        <v>6782</v>
       </c>
       <c r="F71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>5425</v>
+        <v>6315</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>5547</v>
+        <v>6330</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>5769</v>
+        <v>6387</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>5960</v>
+        <v>6584</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>6160</v>
+        <v>6782</v>
       </c>
       <c r="F72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>5426</v>
+        <v>6315</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>5548</v>
+        <v>6330</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>5770</v>
+        <v>6387</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>5961</v>
+        <v>6585</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>6161</v>
+        <v>6782</v>
       </c>
       <c r="F73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>5426</v>
+        <v>6315</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>5549</v>
+        <v>6330</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>5771</v>
+        <v>6387</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>5962</v>
+        <v>6585</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>6162</v>
+        <v>6782</v>
       </c>
       <c r="F74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>5426</v>
+        <v>6315</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>5549</v>
+        <v>6330</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>5772</v>
+        <v>6388</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>5963</v>
+        <v>6586</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>6162</v>
+        <v>6782</v>
       </c>
       <c r="F75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>5426</v>
+        <v>6315</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>5550</v>
+        <v>6330</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>5773</v>
+        <v>6389</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>5964</v>
+        <v>6587</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>6162</v>
+        <v>6782</v>
       </c>
       <c r="F76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>5427</v>
+        <v>6315</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>5551</v>
+        <v>6330</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>5774</v>
+        <v>6390</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>5965</v>
+        <v>6588</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>6162</v>
+        <v>6783</v>
       </c>
       <c r="F77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>5427</v>
+        <v>6315</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>5552</v>
+        <v>6330</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>5774</v>
+        <v>6390</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>5965</v>
+        <v>6589</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>6162</v>
+        <v>6783</v>
       </c>
       <c r="F78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>5427</v>
+        <v>6316</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>5553</v>
+        <v>6331</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>5774</v>
+        <v>6391</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>5966</v>
+        <v>6590</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>6162</v>
+        <v>6784</v>
       </c>
       <c r="F79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>5427</v>
+        <v>6316</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>5554</v>
+        <v>6331</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>5775</v>
+        <v>6392</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>5967</v>
+        <v>6591</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>6163</v>
+        <v>6785</v>
       </c>
       <c r="F80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>5555</v>
+        <v>6331</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>5776</v>
+        <v>6393</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>5968</v>
+        <v>6592</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="F81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>5555</v>
+        <v>6331</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>5777</v>
+        <v>6393</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>5969</v>
+        <v>6593</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="F82" s="0"/>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>5556</v>
+        <v>6331</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>5777</v>
+        <v>6393</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>5969</v>
+        <v>6594</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="F83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>5557</v>
+        <v>6331</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>5777</v>
+        <v>6393</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>5969</v>
+        <v>6594</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="F84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>5558</v>
+        <v>6331</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>5777</v>
+        <v>6393</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>5969</v>
+        <v>6594</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="F85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>5559</v>
+        <v>6331</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>5777</v>
+        <v>6393</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>5970</v>
+        <v>6594</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="F86" s="0"/>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>5428</v>
+        <v>6316</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>5560</v>
+        <v>6331</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>5778</v>
+        <v>6393</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>5971</v>
+        <v>6594</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>6165</v>
+        <v>6786</v>
       </c>
       <c r="F87" s="0"/>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>5429</v>
+        <v>6316</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>5561</v>
+        <v>6331</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>5779</v>
+        <v>6394</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>5972</v>
+        <v>6595</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>6166</v>
+        <v>6787</v>
       </c>
       <c r="F88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>5429</v>
+        <v>6316</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>5561</v>
+        <v>6331</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>5780</v>
+        <v>6395</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>5973</v>
+        <v>6596</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>6166</v>
+        <v>6788</v>
       </c>
       <c r="F89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>5429</v>
+        <v>6316</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>5562</v>
+        <v>6331</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>5780</v>
+        <v>6395</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>5974</v>
+        <v>6596</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>6166</v>
+        <v>6788</v>
       </c>
       <c r="F90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>5429</v>
+        <v>6316</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>5563</v>
+        <v>6331</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>5781</v>
+        <v>6396</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>5975</v>
+        <v>6597</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>6167</v>
+        <v>6789</v>
       </c>
       <c r="F91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>5430</v>
+        <v>6316</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>5564</v>
+        <v>6331</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>5782</v>
+        <v>6396</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>5976</v>
+        <v>6598</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>6168</v>
+        <v>6789</v>
       </c>
       <c r="F92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>5430</v>
+        <v>6316</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>5565</v>
+        <v>6331</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>5783</v>
+        <v>6397</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>5977</v>
+        <v>6599</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>6169</v>
+        <v>6790</v>
       </c>
       <c r="F93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>5431</v>
+        <v>6316</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>5566</v>
+        <v>6331</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>5784</v>
+        <v>6397</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>5978</v>
+        <v>6599</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>6170</v>
+        <v>6790</v>
       </c>
       <c r="F94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>5431</v>
+        <v>6316</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>5567</v>
+        <v>6331</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>5784</v>
+        <v>6398</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>5979</v>
+        <v>6600</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>6170</v>
+        <v>6791</v>
       </c>
       <c r="F95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>5431</v>
+        <v>6316</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>5568</v>
+        <v>6331</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>5785</v>
+        <v>6398</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>5980</v>
+        <v>6601</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>6171</v>
+        <v>6792</v>
       </c>
       <c r="F96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>5569</v>
+        <v>6331</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>5786</v>
+        <v>6398</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>5981</v>
+        <v>6602</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>6172</v>
+        <v>6793</v>
       </c>
       <c r="F97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>5570</v>
+        <v>6332</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>5786</v>
+        <v>6399</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>5981</v>
+        <v>6603</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>6172</v>
+        <v>6794</v>
       </c>
       <c r="F98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>5571</v>
+        <v>6332</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>5786</v>
+        <v>6399</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>5981</v>
+        <v>6604</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>6172</v>
+        <v>6794</v>
       </c>
       <c r="F99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>5572</v>
+        <v>6332</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>5786</v>
+        <v>6400</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>5981</v>
+        <v>6605</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>6172</v>
+        <v>6794</v>
       </c>
       <c r="F100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>5573</v>
+        <v>6332</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>5786</v>
+        <v>6401</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>5981</v>
+        <v>6606</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>6172</v>
+        <v>6795</v>
       </c>
       <c r="F101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>5574</v>
+        <v>6332</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>5786</v>
+        <v>6402</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>5981</v>
+        <v>6607</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>6172</v>
+        <v>6796</v>
       </c>
       <c r="F102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>5575</v>
+        <v>6332</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>5786</v>
+        <v>6403</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>5982</v>
+        <v>6608</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>6172</v>
+        <v>6797</v>
       </c>
       <c r="F103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>5432</v>
+        <v>6316</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>5576</v>
+        <v>6332</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>5787</v>
+        <v>6403</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>5983</v>
+        <v>6609</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>6172</v>
+        <v>6797</v>
       </c>
       <c r="F104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>5433</v>
+        <v>6316</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>5577</v>
+        <v>6332</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>5788</v>
+        <v>6404</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>5984</v>
+        <v>6610</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>6172</v>
+        <v>6798</v>
       </c>
       <c r="F105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>5433</v>
+        <v>6316</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>5578</v>
+        <v>6332</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>5789</v>
+        <v>6405</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>5985</v>
+        <v>6611</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>6173</v>
+        <v>6799</v>
       </c>
       <c r="F106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>5434</v>
+        <v>6316</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>5579</v>
+        <v>6332</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>5790</v>
+        <v>6405</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>5986</v>
+        <v>6612</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>6174</v>
+        <v>6799</v>
       </c>
       <c r="F107" s="0"/>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>5434</v>
+        <v>6316</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>5579</v>
+        <v>6332</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>5791</v>
+        <v>6405</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>5987</v>
+        <v>6613</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>6174</v>
+        <v>6800</v>
       </c>
       <c r="F108" s="0"/>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>5434</v>
+        <v>6316</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>5580</v>
+        <v>6332</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>5792</v>
+        <v>6406</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>5988</v>
+        <v>6614</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>6175</v>
+        <v>6801</v>
       </c>
       <c r="F109" s="0"/>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>5435</v>
+        <v>6316</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>5581</v>
+        <v>6332</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>5793</v>
+        <v>6406</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>5989</v>
+        <v>6614</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>6176</v>
+        <v>6801</v>
       </c>
       <c r="F110" s="0"/>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>5435</v>
+        <v>6316</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>5582</v>
+        <v>6332</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>5793</v>
+        <v>6407</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>5990</v>
+        <v>6615</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>6176</v>
+        <v>6802</v>
       </c>
       <c r="F111" s="0"/>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>5435</v>
+        <v>6316</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>5583</v>
+        <v>6332</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>5794</v>
+        <v>6408</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>5991</v>
+        <v>6616</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>6177</v>
+        <v>6803</v>
       </c>
       <c r="F112" s="0"/>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>5436</v>
+        <v>6316</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>5584</v>
+        <v>6332</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>5795</v>
+        <v>6408</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>5992</v>
+        <v>6617</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>6178</v>
+        <v>6803</v>
       </c>
       <c r="F113" s="0"/>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>5436</v>
+        <v>6316</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>5585</v>
+        <v>6332</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>5795</v>
+        <v>6409</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>5992</v>
+        <v>6618</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>6178</v>
+        <v>6804</v>
       </c>
       <c r="F114" s="0"/>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>5436</v>
+        <v>6316</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>5586</v>
+        <v>6332</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>5796</v>
+        <v>6409</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>5993</v>
+        <v>6619</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>6179</v>
+        <v>6805</v>
       </c>
       <c r="F115" s="0"/>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>5437</v>
+        <v>6316</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>5587</v>
+        <v>6332</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>5797</v>
+        <v>6410</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>5994</v>
+        <v>6620</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>6180</v>
+        <v>6806</v>
       </c>
       <c r="F116" s="0"/>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>5437</v>
+        <v>6316</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>5587</v>
+        <v>6332</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>5798</v>
+        <v>6410</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>5995</v>
+        <v>6621</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>6180</v>
+        <v>6806</v>
       </c>
       <c r="F117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>5437</v>
+        <v>6316</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>5588</v>
+        <v>6332</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>5798</v>
+        <v>6411</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>5996</v>
+        <v>6622</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>6180</v>
+        <v>6807</v>
       </c>
       <c r="F118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>5437</v>
+        <v>6317</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>5589</v>
+        <v>6333</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>5799</v>
+        <v>6412</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>5997</v>
+        <v>6623</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>6181</v>
+        <v>6808</v>
       </c>
       <c r="F119" s="0"/>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>5438</v>
+        <v>6317</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>5590</v>
+        <v>6333</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>5800</v>
+        <v>6413</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>5998</v>
+        <v>6624</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>6182</v>
+        <v>6809</v>
       </c>
       <c r="F120" s="0"/>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>5438</v>
+        <v>6317</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>5590</v>
+        <v>6333</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>5801</v>
+        <v>6414</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>5999</v>
+        <v>6625</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>6182</v>
+        <v>6810</v>
       </c>
       <c r="F121" s="0"/>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>5438</v>
+        <v>6317</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>5591</v>
+        <v>6333</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>5801</v>
+        <v>6414</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>5999</v>
+        <v>6625</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>6182</v>
+        <v>6810</v>
       </c>
       <c r="F122" s="0"/>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>5438</v>
+        <v>6317</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>5592</v>
+        <v>6333</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>5801</v>
+        <v>6414</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>5999</v>
+        <v>6625</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>6182</v>
+        <v>6810</v>
       </c>
       <c r="F123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>5438</v>
+        <v>6317</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>5593</v>
+        <v>6333</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>5802</v>
+        <v>6414</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>6000</v>
+        <v>6625</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>6182</v>
+        <v>6810</v>
       </c>
       <c r="F124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>5439</v>
+        <v>6317</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>5594</v>
+        <v>6333</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>5803</v>
+        <v>6414</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>6001</v>
+        <v>6625</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>6182</v>
+        <v>6810</v>
       </c>
       <c r="F125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>5439</v>
+        <v>6317</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>5594</v>
+        <v>6333</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>5804</v>
+        <v>6415</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>6002</v>
+        <v>6626</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>6182</v>
+        <v>6811</v>
       </c>
       <c r="F126" s="0"/>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>5439</v>
+        <v>6317</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>5595</v>
+        <v>6333</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>5805</v>
+        <v>6416</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>6003</v>
+        <v>6627</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>6183</v>
+        <v>6812</v>
       </c>
       <c r="F127" s="0"/>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>5439</v>
+        <v>6317</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>5596</v>
+        <v>6333</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>5806</v>
+        <v>6416</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>6004</v>
+        <v>6627</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>6184</v>
+        <v>6812</v>
       </c>
       <c r="F128" s="0"/>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>5439</v>
+        <v>6317</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>5596</v>
+        <v>6333</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>5807</v>
+        <v>6416</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>6005</v>
+        <v>6627</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>6185</v>
+        <v>6812</v>
       </c>
       <c r="F129" s="0"/>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>5440</v>
+        <v>6318</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>5597</v>
+        <v>6334</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>5808</v>
+        <v>6416</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>6006</v>
+        <v>6627</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>6186</v>
+        <v>6812</v>
       </c>
       <c r="F130" s="0"/>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>5598</v>
+        <v>6334</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>5809</v>
+        <v>6417</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>6007</v>
+        <v>6628</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>6186</v>
+        <v>6813</v>
       </c>
       <c r="F131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>5599</v>
+        <v>6334</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>5809</v>
+        <v>6418</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>6007</v>
+        <v>6629</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>6186</v>
+        <v>6814</v>
       </c>
       <c r="F132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>5600</v>
+        <v>6334</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>5809</v>
+        <v>6419</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>6007</v>
+        <v>6630</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>6186</v>
+        <v>6815</v>
       </c>
       <c r="F133" s="0"/>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>5601</v>
+        <v>6334</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>5809</v>
+        <v>6419</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>6007</v>
+        <v>6631</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>6186</v>
+        <v>6815</v>
       </c>
       <c r="F134" s="0"/>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>5602</v>
+        <v>6334</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>5810</v>
+        <v>6419</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>6008</v>
+        <v>6632</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>6187</v>
+        <v>6816</v>
       </c>
       <c r="F135" s="0"/>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>5603</v>
+        <v>6334</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>5811</v>
+        <v>6420</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>6009</v>
+        <v>6633</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>6188</v>
+        <v>6817</v>
       </c>
       <c r="F136" s="0"/>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>5441</v>
+        <v>6318</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>5603</v>
+        <v>6334</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>5812</v>
+        <v>6421</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>6010</v>
+        <v>6634</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>6189</v>
+        <v>6817</v>
       </c>
       <c r="F137" s="0"/>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>5442</v>
+        <v>6318</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>5604</v>
+        <v>6334</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>5813</v>
+        <v>6422</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>6011</v>
+        <v>6635</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>6190</v>
+        <v>6817</v>
       </c>
       <c r="F138" s="0"/>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>5442</v>
+        <v>6318</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>5605</v>
+        <v>6334</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>5813</v>
+        <v>6423</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>6011</v>
+        <v>6636</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>6190</v>
+        <v>6817</v>
       </c>
       <c r="F139" s="0"/>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>5442</v>
+        <v>6318</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>5606</v>
+        <v>6335</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>5813</v>
+        <v>6424</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>6011</v>
+        <v>6637</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>6190</v>
+        <v>6818</v>
       </c>
       <c r="F140" s="0"/>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>5442</v>
+        <v>6318</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>5607</v>
+        <v>6335</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>5813</v>
+        <v>6425</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>6011</v>
+        <v>6638</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>6190</v>
+        <v>6819</v>
       </c>
       <c r="F141" s="0"/>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>5442</v>
+        <v>6318</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>5608</v>
+        <v>6335</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>5813</v>
+        <v>6426</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>6012</v>
+        <v>6639</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>6190</v>
+        <v>6819</v>
       </c>
       <c r="F142" s="0"/>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>5442</v>
+        <v>6318</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>5609</v>
+        <v>6335</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>5814</v>
+        <v>6427</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>6013</v>
+        <v>6640</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>6191</v>
+        <v>6819</v>
       </c>
       <c r="F143" s="0"/>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>5443</v>
+        <v>6318</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>5610</v>
+        <v>6335</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>5814</v>
+        <v>6428</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>6014</v>
+        <v>6641</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>6192</v>
+        <v>6820</v>
       </c>
       <c r="F144" s="0"/>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>5444</v>
+        <v>6318</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>5611</v>
+        <v>6335</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>5815</v>
+        <v>6429</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>6015</v>
+        <v>6642</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>6193</v>
+        <v>6821</v>
       </c>
       <c r="F145" s="0"/>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>5444</v>
+        <v>6318</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>5611</v>
+        <v>6335</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>5816</v>
+        <v>6429</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>6016</v>
+        <v>6642</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>6193</v>
+        <v>6821</v>
       </c>
       <c r="F146" s="0"/>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>5444</v>
+        <v>6318</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>5612</v>
+        <v>6335</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>5817</v>
+        <v>6430</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>6017</v>
+        <v>6643</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>6193</v>
+        <v>6821</v>
       </c>
       <c r="F147" s="0"/>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>5445</v>
+        <v>6318</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>5613</v>
+        <v>6335</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>5818</v>
+        <v>6431</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>6018</v>
+        <v>6644</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>6193</v>
+        <v>6822</v>
       </c>
       <c r="F148" s="0"/>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>5445</v>
+        <v>6318</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>5614</v>
+        <v>6335</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>5818</v>
+        <v>6432</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>6018</v>
+        <v>6645</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>6193</v>
+        <v>6823</v>
       </c>
       <c r="F149" s="0"/>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>5445</v>
+        <v>6318</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>5615</v>
+        <v>6335</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>5818</v>
+        <v>6433</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>6018</v>
+        <v>6646</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>6193</v>
+        <v>6823</v>
       </c>
       <c r="F150" s="0"/>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>5445</v>
+        <v>6318</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>5616</v>
+        <v>6335</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>5819</v>
+        <v>6434</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>6019</v>
+        <v>6647</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>6194</v>
+        <v>6824</v>
       </c>
       <c r="F151" s="0"/>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>5446</v>
+        <v>6318</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>5617</v>
+        <v>6335</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>5820</v>
+        <v>6435</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>6020</v>
+        <v>6648</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>6195</v>
+        <v>6825</v>
       </c>
       <c r="F152" s="0"/>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>5446</v>
+        <v>6318</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>5617</v>
+        <v>6335</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>5821</v>
+        <v>6435</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>6021</v>
+        <v>6649</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>6195</v>
+        <v>6825</v>
       </c>
       <c r="F153" s="0"/>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>5446</v>
+        <v>6318</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>5618</v>
+        <v>6335</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>5821</v>
+        <v>6436</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>6021</v>
+        <v>6650</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>6195</v>
+        <v>6825</v>
       </c>
       <c r="F154" s="0"/>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>5446</v>
+        <v>6318</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>5619</v>
+        <v>6335</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>5821</v>
+        <v>6437</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>6021</v>
+        <v>6651</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>6195</v>
+        <v>6825</v>
       </c>
       <c r="F155" s="0"/>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>5446</v>
+        <v>6318</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>5620</v>
+        <v>6335</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>5821</v>
+        <v>6438</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>6022</v>
+        <v>6652</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>6195</v>
+        <v>6825</v>
       </c>
       <c r="F156" s="0"/>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>5446</v>
+        <v>6318</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>5621</v>
+        <v>6335</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>5822</v>
+        <v>6439</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>6023</v>
+        <v>6653</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>6196</v>
+        <v>6826</v>
       </c>
       <c r="F157" s="0"/>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>5447</v>
+        <v>6318</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>5622</v>
+        <v>6335</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>5823</v>
+        <v>6440</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>6024</v>
+        <v>6654</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>6197</v>
+        <v>6827</v>
       </c>
       <c r="F158" s="0"/>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>5447</v>
+        <v>6318</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>5623</v>
+        <v>6335</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>5824</v>
+        <v>6440</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>6025</v>
+        <v>6654</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>6197</v>
+        <v>6827</v>
       </c>
       <c r="F159" s="0"/>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>5447</v>
+        <v>6318</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>5624</v>
+        <v>6335</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>5824</v>
+        <v>6441</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>6026</v>
+        <v>6655</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>6197</v>
+        <v>6827</v>
       </c>
       <c r="F160" s="0"/>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>5447</v>
+        <v>6318</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>5625</v>
+        <v>6335</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>5825</v>
+        <v>6442</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>6027</v>
+        <v>6656</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>6198</v>
+        <v>6827</v>
       </c>
       <c r="F161" s="0"/>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>5448</v>
+        <v>6318</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>5626</v>
+        <v>6335</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>5826</v>
+        <v>6442</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>6028</v>
+        <v>6656</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>6199</v>
+        <v>6827</v>
       </c>
       <c r="F162" s="0"/>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>5448</v>
+        <v>6318</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>5627</v>
+        <v>6335</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>5826</v>
+        <v>6443</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>6028</v>
+        <v>6657</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>6199</v>
+        <v>6827</v>
       </c>
       <c r="F163" s="0"/>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>5448</v>
+        <v>6318</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>5628</v>
+        <v>6335</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>5826</v>
+        <v>6444</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>6028</v>
+        <v>6658</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>6199</v>
+        <v>6827</v>
       </c>
       <c r="F164" s="0"/>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>5448</v>
+        <v>6318</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>5629</v>
+        <v>6335</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>5826</v>
+        <v>6445</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>6029</v>
+        <v>6659</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>6199</v>
+        <v>6827</v>
       </c>
       <c r="F165" s="0"/>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>5448</v>
+        <v>6318</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>5630</v>
+        <v>6335</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>5827</v>
+        <v>6446</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>6030</v>
+        <v>6660</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>6200</v>
+        <v>6827</v>
       </c>
       <c r="F166" s="0"/>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>5449</v>
+        <v>6318</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>5631</v>
+        <v>6335</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>5828</v>
+        <v>6446</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>6031</v>
+        <v>6661</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>6201</v>
+        <v>6827</v>
       </c>
       <c r="F167" s="0"/>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>5449</v>
+        <v>6318</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>5632</v>
+        <v>6335</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>5828</v>
+        <v>6447</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>6031</v>
+        <v>6662</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>6201</v>
+        <v>6828</v>
       </c>
       <c r="F168" s="0"/>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>5449</v>
+        <v>6319</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>5633</v>
+        <v>6336</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>5828</v>
+        <v>6448</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>6031</v>
+        <v>6663</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>6201</v>
+        <v>6829</v>
       </c>
       <c r="F169" s="0"/>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>5449</v>
+        <v>6319</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>5634</v>
+        <v>6336</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>5828</v>
+        <v>6448</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>6032</v>
+        <v>6663</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>6201</v>
+        <v>6829</v>
       </c>
       <c r="F170" s="0"/>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>5449</v>
+        <v>6319</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>5634</v>
+        <v>6336</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>5828</v>
+        <v>6449</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>6033</v>
+        <v>6664</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>6201</v>
+        <v>6830</v>
       </c>
       <c r="F171" s="0"/>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>5449</v>
+        <v>6319</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>5635</v>
+        <v>6336</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>5828</v>
+        <v>6450</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>6033</v>
+        <v>6665</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>6201</v>
+        <v>6831</v>
       </c>
       <c r="F172" s="0"/>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>5449</v>
+        <v>6319</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>5636</v>
+        <v>6336</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>5829</v>
+        <v>6450</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>6034</v>
+        <v>6665</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>6202</v>
+        <v>6831</v>
       </c>
       <c r="F173" s="0"/>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>5450</v>
+        <v>6319</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>5637</v>
+        <v>6336</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>5830</v>
+        <v>6450</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>6035</v>
+        <v>6665</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>6203</v>
+        <v>6831</v>
       </c>
       <c r="F174" s="0"/>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>5450</v>
+        <v>6319</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>5637</v>
+        <v>6336</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>5831</v>
+        <v>6451</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>6036</v>
+        <v>6666</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>6203</v>
+        <v>6832</v>
       </c>
       <c r="F175" s="0"/>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>5450</v>
+        <v>6319</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>5638</v>
+        <v>6336</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>5832</v>
+        <v>6452</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>6037</v>
+        <v>6667</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>6204</v>
+        <v>6833</v>
       </c>
       <c r="F176" s="0"/>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>5451</v>
+        <v>6319</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>5639</v>
+        <v>6336</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>5833</v>
+        <v>6453</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>6038</v>
+        <v>6668</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>6205</v>
+        <v>6833</v>
       </c>
       <c r="F177" s="0"/>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>5451</v>
+        <v>6319</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>5639</v>
+        <v>6336</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>5834</v>
+        <v>6454</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>6039</v>
+        <v>6669</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>6205</v>
+        <v>6833</v>
       </c>
       <c r="F178" s="0"/>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>5451</v>
+        <v>6319</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>5640</v>
+        <v>6336</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>5835</v>
+        <v>6454</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>6040</v>
+        <v>6669</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>6206</v>
+        <v>6833</v>
       </c>
       <c r="F179" s="0"/>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>5452</v>
+        <v>6319</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>5641</v>
+        <v>6336</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>5836</v>
+        <v>6454</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>6041</v>
+        <v>6669</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>6207</v>
+        <v>6833</v>
       </c>
       <c r="F180" s="0"/>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>5452</v>
+        <v>6319</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>5642</v>
+        <v>6336</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>5837</v>
+        <v>6454</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>6042</v>
+        <v>6669</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>6208</v>
+        <v>6833</v>
       </c>
       <c r="F181" s="0"/>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>5453</v>
+        <v>6319</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>5643</v>
+        <v>6336</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>5837</v>
+        <v>6455</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>6043</v>
+        <v>6670</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>6209</v>
+        <v>6834</v>
       </c>
       <c r="F182" s="0"/>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>5453</v>
+        <v>6319</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>5644</v>
+        <v>6336</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>5838</v>
+        <v>6456</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>6044</v>
+        <v>6671</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>6210</v>
+        <v>6835</v>
       </c>
       <c r="F183" s="0"/>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>5453</v>
+        <v>6319</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>5644</v>
+        <v>6336</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>5839</v>
+        <v>6457</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>6045</v>
+        <v>6672</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>6210</v>
+        <v>6835</v>
       </c>
       <c r="F184" s="0"/>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>5453</v>
+        <v>6319</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>5645</v>
+        <v>6336</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>5840</v>
+        <v>6458</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>6046</v>
+        <v>6673</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>6211</v>
+        <v>6836</v>
       </c>
       <c r="F185" s="0"/>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>5454</v>
+        <v>6319</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>5646</v>
+        <v>6336</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>5841</v>
+        <v>6458</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>6047</v>
+        <v>6674</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>6212</v>
+        <v>6837</v>
       </c>
       <c r="F186" s="0"/>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>5454</v>
+        <v>6319</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>5646</v>
+        <v>6336</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>5842</v>
+        <v>6459</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>6048</v>
+        <v>6675</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>6212</v>
+        <v>6838</v>
       </c>
       <c r="F187" s="0"/>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>5454</v>
+        <v>6320</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>5647</v>
+        <v>6337</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>5843</v>
+        <v>6460</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>6049</v>
+        <v>6676</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>6213</v>
+        <v>6838</v>
       </c>
       <c r="F188" s="0"/>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>5455</v>
+        <v>6320</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>5648</v>
+        <v>6337</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>5844</v>
+        <v>6461</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>6050</v>
+        <v>6677</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>6214</v>
+        <v>6838</v>
       </c>
       <c r="F189" s="0"/>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>5455</v>
+        <v>6320</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>5648</v>
+        <v>6337</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>5845</v>
+        <v>6461</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>6051</v>
+        <v>6677</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>6214</v>
+        <v>6838</v>
       </c>
       <c r="F190" s="0"/>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>5455</v>
+        <v>6320</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>5649</v>
+        <v>6337</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>5845</v>
+        <v>6461</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>6052</v>
+        <v>6678</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>6214</v>
+        <v>6838</v>
       </c>
       <c r="F191" s="0"/>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>5455</v>
+        <v>6320</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>5650</v>
+        <v>6337</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>5846</v>
+        <v>6462</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>6053</v>
+        <v>6679</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>6215</v>
+        <v>6839</v>
       </c>
       <c r="F192" s="0"/>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>5456</v>
+        <v>6320</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>5651</v>
+        <v>6337</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>5847</v>
+        <v>6463</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>6054</v>
+        <v>6680</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>6216</v>
+        <v>6840</v>
       </c>
       <c r="F193" s="0"/>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>5457</v>
+        <v>6320</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>5652</v>
+        <v>6337</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>5848</v>
+        <v>6464</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>6055</v>
+        <v>6681</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>6216</v>
+        <v>6840</v>
       </c>
       <c r="F194" s="0"/>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>5457</v>
+        <v>6320</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>5653</v>
+        <v>6337</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>5848</v>
+        <v>6465</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>6055</v>
+        <v>6682</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>6216</v>
+        <v>6840</v>
       </c>
       <c r="F195" s="0"/>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>5457</v>
+        <v>6320</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>5654</v>
+        <v>6337</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>5848</v>
+        <v>6466</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>6056</v>
+        <v>6683</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>6216</v>
+        <v>6840</v>
       </c>
       <c r="F196" s="0"/>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>5457</v>
+        <v>6320</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>5655</v>
+        <v>6337</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>5849</v>
+        <v>6467</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>6057</v>
+        <v>6684</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>6217</v>
+        <v>6840</v>
       </c>
       <c r="F197" s="0"/>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>5458</v>
+        <v>6320</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>5656</v>
+        <v>6337</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>5850</v>
+        <v>6468</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>6058</v>
+        <v>6685</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>6218</v>
+        <v>6841</v>
       </c>
       <c r="F198" s="0"/>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>5458</v>
+        <v>6320</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>5656</v>
+        <v>6337</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>5851</v>
+        <v>6469</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>6059</v>
+        <v>6686</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>6219</v>
+        <v>6842</v>
       </c>
       <c r="F199" s="0"/>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>5459</v>
+        <v>6320</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>5657</v>
+        <v>6337</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>5851</v>
+        <v>6469</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>6060</v>
+        <v>6687</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>6220</v>
+        <v>6842</v>
       </c>
       <c r="F200" s="0"/>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>5459</v>
+        <v>6320</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>5658</v>
+        <v>6337</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>5852</v>
+        <v>6469</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>6061</v>
+        <v>6688</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>6221</v>
+        <v>6842</v>
       </c>
       <c r="F201" s="0"/>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>5459</v>
+        <v>6320</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>5658</v>
+        <v>6337</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>5853</v>
+        <v>6469</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>6062</v>
+        <v>6689</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>6221</v>
+        <v>6842</v>
       </c>
       <c r="F202" s="0"/>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>5459</v>
+        <v>6320</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>5659</v>
+        <v>6337</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>5854</v>
+        <v>6469</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>6063</v>
+        <v>6689</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>6222</v>
+        <v>6842</v>
       </c>
       <c r="F203" s="0"/>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>5459</v>
+        <v>6321</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>5660</v>
+        <v>6338</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>5855</v>
+        <v>6469</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>6064</v>
+        <v>6689</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>6223</v>
+        <v>6842</v>
       </c>
       <c r="F204" s="0"/>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>5459</v>
+        <v>6321</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>5661</v>
+        <v>6338</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>5855</v>
+        <v>6470</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>6064</v>
+        <v>6690</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>6223</v>
+        <v>6843</v>
       </c>
       <c r="F205" s="0"/>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>5459</v>
+        <v>6321</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>5662</v>
+        <v>6338</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>5855</v>
+        <v>6471</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>6064</v>
+        <v>6691</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>6223</v>
+        <v>6844</v>
       </c>
       <c r="F206" s="0"/>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>5459</v>
+        <v>6321</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>5663</v>
+        <v>6338</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>5856</v>
+        <v>6471</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>6065</v>
+        <v>6692</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>6223</v>
+        <v>6844</v>
       </c>
       <c r="F207" s="0"/>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>5460</v>
+        <v>6321</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>5664</v>
+        <v>6338</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>5857</v>
+        <v>6471</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>6066</v>
+        <v>6693</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>6223</v>
+        <v>6844</v>
       </c>
       <c r="F208" s="0"/>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>5460</v>
+        <v>6321</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>5664</v>
+        <v>6338</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>5858</v>
+        <v>6471</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>6067</v>
+        <v>6693</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>6224</v>
+        <v>6844</v>
       </c>
       <c r="F209" s="0"/>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>5461</v>
+        <v>6321</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>5665</v>
+        <v>6338</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>5859</v>
+        <v>6471</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>6068</v>
+        <v>6693</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>6225</v>
+        <v>6844</v>
       </c>
       <c r="F210" s="0"/>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>5461</v>
+        <v>6321</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>5665</v>
+        <v>6338</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>5860</v>
+        <v>6471</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>6069</v>
+        <v>6693</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>6225</v>
+        <v>6844</v>
       </c>
       <c r="F211" s="0"/>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>5461</v>
+        <v>6321</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>5666</v>
+        <v>6338</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>5861</v>
+        <v>6472</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>6070</v>
+        <v>6694</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>6226</v>
+        <v>6845</v>
       </c>
       <c r="F212" s="0"/>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>5462</v>
+        <v>6321</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>5667</v>
+        <v>6338</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>5862</v>
+        <v>6473</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>6071</v>
+        <v>6695</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>6227</v>
+        <v>6846</v>
       </c>
       <c r="F213" s="0"/>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>5462</v>
+        <v>6321</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>5668</v>
+        <v>6338</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>5862</v>
+        <v>6474</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>6071</v>
+        <v>6696</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>6227</v>
+        <v>6846</v>
       </c>
       <c r="F214" s="0"/>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>5462</v>
+        <v>6321</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>5669</v>
+        <v>6338</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>5862</v>
+        <v>6475</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>6071</v>
+        <v>6697</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>6227</v>
+        <v>6846</v>
       </c>
       <c r="F215" s="0"/>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>5462</v>
+        <v>6321</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>5670</v>
+        <v>6339</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>5862</v>
+        <v>6475</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>6072</v>
+        <v>6697</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>6227</v>
+        <v>6846</v>
       </c>
       <c r="F216" s="0"/>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>5462</v>
+        <v>6321</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>5671</v>
+        <v>6339</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>5863</v>
+        <v>6476</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>6073</v>
+        <v>6698</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>6228</v>
+        <v>6846</v>
       </c>
       <c r="F217" s="0"/>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>5463</v>
+        <v>6321</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>5672</v>
+        <v>6339</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>5864</v>
+        <v>6477</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>6074</v>
+        <v>6699</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>6229</v>
+        <v>6846</v>
       </c>
       <c r="F218" s="0"/>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>5463</v>
+        <v>6321</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>5673</v>
+        <v>6339</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>5864</v>
+        <v>6477</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>6075</v>
+        <v>6700</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>6229</v>
+        <v>6846</v>
       </c>
       <c r="F219" s="0"/>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>5463</v>
+        <v>6321</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>5674</v>
+        <v>6339</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>5865</v>
+        <v>6477</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>6076</v>
+        <v>6701</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>6230</v>
+        <v>6846</v>
       </c>
       <c r="F220" s="0"/>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>5675</v>
+        <v>6339</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>5866</v>
+        <v>6477</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>6077</v>
+        <v>6702</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>6231</v>
+        <v>6846</v>
       </c>
       <c r="F221" s="0"/>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>5676</v>
+        <v>6340</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>5866</v>
+        <v>6477</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>6077</v>
+        <v>6703</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>6231</v>
+        <v>6846</v>
       </c>
       <c r="F222" s="0"/>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>5677</v>
+        <v>6340</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>5867</v>
+        <v>6478</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>6078</v>
+        <v>6704</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>6232</v>
+        <v>6846</v>
       </c>
       <c r="F223" s="0"/>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>5678</v>
+        <v>6340</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>5868</v>
+        <v>6479</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>6079</v>
+        <v>6705</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>6233</v>
+        <v>6846</v>
       </c>
       <c r="F224" s="0"/>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>5678</v>
+        <v>6340</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>5869</v>
+        <v>6480</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>6080</v>
+        <v>6706</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>6233</v>
+        <v>6847</v>
       </c>
       <c r="F225" s="0"/>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>5679</v>
+        <v>6340</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>5869</v>
+        <v>6481</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>6080</v>
+        <v>6707</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>6233</v>
+        <v>6848</v>
       </c>
       <c r="F226" s="0"/>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>5464</v>
+        <v>6321</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>5680</v>
+        <v>6340</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>5870</v>
+        <v>6481</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>6081</v>
+        <v>6708</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>6234</v>
+        <v>6848</v>
       </c>
       <c r="F227" s="0"/>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>5465</v>
+        <v>6321</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>5681</v>
+        <v>6340</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>5871</v>
+        <v>6481</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>6082</v>
+        <v>6709</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>6235</v>
+        <v>6848</v>
       </c>
       <c r="F228" s="0"/>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>5465</v>
+        <v>6321</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>5681</v>
+        <v>6340</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>5872</v>
+        <v>6481</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>6083</v>
+        <v>6710</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>6235</v>
+        <v>6848</v>
       </c>
       <c r="F229" s="0"/>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>5466</v>
+        <v>6321</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>5682</v>
+        <v>6340</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>5873</v>
+        <v>6481</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>6084</v>
+        <v>6710</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>6235</v>
+        <v>6848</v>
       </c>
       <c r="F230" s="0"/>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>5466</v>
+        <v>6321</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>5683</v>
+        <v>6340</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>5873</v>
+        <v>6482</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>6084</v>
+        <v>6711</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>6235</v>
+        <v>6849</v>
       </c>
       <c r="F231" s="0"/>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>5466</v>
+        <v>6321</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>5684</v>
+        <v>6340</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>5874</v>
+        <v>6483</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>6085</v>
+        <v>6712</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>6236</v>
+        <v>6850</v>
       </c>
       <c r="F232" s="0"/>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>5466</v>
+        <v>6321</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>5685</v>
+        <v>6340</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>5875</v>
+        <v>6484</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>6086</v>
+        <v>6713</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>6237</v>
+        <v>6851</v>
       </c>
       <c r="F233" s="0"/>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>5466</v>
+        <v>6321</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>5685</v>
+        <v>6340</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>5876</v>
+        <v>6485</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>6087</v>
+        <v>6714</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>6237</v>
+        <v>6852</v>
       </c>
       <c r="F234" s="0"/>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>5466</v>
+        <v>6322</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>5686</v>
+        <v>6341</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>5876</v>
+        <v>6485</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>6088</v>
+        <v>6715</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>6237</v>
+        <v>6852</v>
       </c>
       <c r="F235" s="0"/>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>5466</v>
+        <v>6322</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>5686</v>
+        <v>6341</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>5876</v>
+        <v>6486</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>6089</v>
+        <v>6716</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>6237</v>
+        <v>6853</v>
       </c>
       <c r="F236" s="0"/>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>5466</v>
+        <v>6322</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>5687</v>
+        <v>6341</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>5876</v>
+        <v>6487</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>6089</v>
+        <v>6717</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>6237</v>
+        <v>6854</v>
       </c>
       <c r="F237" s="0"/>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>5466</v>
+        <v>6322</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>5688</v>
+        <v>6341</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>5876</v>
+        <v>6488</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>6089</v>
+        <v>6718</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>6237</v>
+        <v>6855</v>
       </c>
       <c r="F238" s="0"/>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>5466</v>
+        <v>6322</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>5689</v>
+        <v>6341</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>5876</v>
+        <v>6489</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>6090</v>
+        <v>6719</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>6237</v>
+        <v>6856</v>
       </c>
       <c r="F239" s="0"/>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>5466</v>
+        <v>6322</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>5690</v>
+        <v>6341</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>5877</v>
+        <v>6490</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>6091</v>
+        <v>6720</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>6238</v>
+        <v>6856</v>
       </c>
       <c r="F240" s="0"/>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>5467</v>
+        <v>6322</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>5691</v>
+        <v>6341</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>5878</v>
+        <v>6491</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>6092</v>
+        <v>6721</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>6239</v>
+        <v>6856</v>
       </c>
       <c r="F241" s="0"/>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>5467</v>
+        <v>6322</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>5691</v>
+        <v>6341</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>5879</v>
+        <v>6492</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>6093</v>
+        <v>6722</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>6239</v>
+        <v>6857</v>
       </c>
       <c r="F242" s="0"/>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>5467</v>
+        <v>6322</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>5692</v>
+        <v>6341</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>5880</v>
+        <v>6493</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>6094</v>
+        <v>6723</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>6240</v>
+        <v>6858</v>
       </c>
       <c r="F243" s="0"/>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>5693</v>
+        <v>6341</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>5881</v>
+        <v>6494</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>6095</v>
+        <v>6724</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>6241</v>
+        <v>6858</v>
       </c>
       <c r="F244" s="0"/>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>5693</v>
+        <v>6342</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>5882</v>
+        <v>6494</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>6096</v>
+        <v>6724</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>6241</v>
+        <v>6858</v>
       </c>
       <c r="F245" s="0"/>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>5694</v>
+        <v>6342</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>5882</v>
+        <v>6495</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>6096</v>
+        <v>6725</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>6241</v>
+        <v>6859</v>
       </c>
       <c r="F246" s="0"/>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>5695</v>
+        <v>6342</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>5882</v>
+        <v>6496</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>6096</v>
+        <v>6726</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>6241</v>
+        <v>6860</v>
       </c>
       <c r="F247" s="0"/>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>5696</v>
+        <v>6342</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>5882</v>
+        <v>6497</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>6097</v>
+        <v>6727</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>6241</v>
+        <v>6860</v>
       </c>
       <c r="F248" s="0"/>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>5697</v>
+        <v>6342</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>5882</v>
+        <v>6497</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>6098</v>
+        <v>6727</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>6241</v>
+        <v>6860</v>
       </c>
       <c r="F249" s="0"/>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>5468</v>
+        <v>6322</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>5698</v>
+        <v>6342</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>5882</v>
+        <v>6498</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>6098</v>
+        <v>6728</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>6241</v>
+        <v>6861</v>
       </c>
       <c r="F250" s="0"/>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>5699</v>
+        <v>6343</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>5882</v>
+        <v>6499</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>6098</v>
+        <v>6729</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>6241</v>
+        <v>6862</v>
       </c>
       <c r="F251" s="0"/>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>5700</v>
+        <v>6343</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>5883</v>
+        <v>6499</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>6099</v>
+        <v>6729</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>6242</v>
+        <v>6862</v>
       </c>
       <c r="F252" s="0"/>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>5700</v>
+        <v>6343</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>5884</v>
+        <v>6499</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>6100</v>
+        <v>6729</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>6243</v>
+        <v>6862</v>
       </c>
       <c r="F253" s="0"/>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>5700</v>
+        <v>6343</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>5885</v>
+        <v>6500</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>6101</v>
+        <v>6730</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>6243</v>
+        <v>6863</v>
       </c>
       <c r="F254" s="0"/>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>5701</v>
+        <v>6343</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>5885</v>
+        <v>6501</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>6101</v>
+        <v>6731</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>6243</v>
+        <v>6864</v>
       </c>
       <c r="F255" s="0"/>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>5702</v>
+        <v>6343</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>5885</v>
+        <v>6502</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>6101</v>
+        <v>6732</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>6243</v>
+        <v>6864</v>
       </c>
       <c r="F256" s="0"/>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>5703</v>
+        <v>6343</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>5885</v>
+        <v>6502</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>6101</v>
+        <v>6732</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>6243</v>
+        <v>6864</v>
       </c>
       <c r="F257" s="0"/>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>5468</v>
+        <v>6323</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>5704</v>
+        <v>6343</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>5885</v>
+        <v>6502</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>6102</v>
+        <v>6732</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>6243</v>
+        <v>6864</v>
       </c>
       <c r="F258" s="0"/>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>5469</v>
+        <v>6323</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>5705</v>
+        <v>6343</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>5886</v>
+        <v>6503</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>6103</v>
+        <v>6733</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>6243</v>
+        <v>6865</v>
       </c>
       <c r="F259" s="0"/>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>5469</v>
+        <v>6323</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>5705</v>
+        <v>6343</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>5887</v>
+        <v>6504</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>6104</v>
+        <v>6734</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>6243</v>
+        <v>6866</v>
       </c>
       <c r="F260" s="0"/>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>5469</v>
+        <v>6323</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>5706</v>
+        <v>6343</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>5888</v>
+        <v>6505</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>6105</v>
+        <v>6735</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>6244</v>
+        <v>6866</v>
       </c>
       <c r="F261" s="0"/>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>5470</v>
+        <v>6323</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>5707</v>
+        <v>6343</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>5889</v>
+        <v>6506</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>6106</v>
+        <v>6736</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>6245</v>
+        <v>6866</v>
       </c>
       <c r="F262" s="0"/>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>5470</v>
+        <v>6323</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>5708</v>
+        <v>6343</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>5889</v>
+        <v>6507</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>6106</v>
+        <v>6737</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>6245</v>
+        <v>6866</v>
       </c>
       <c r="F263" s="0"/>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>5470</v>
+        <v>6324</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>5709</v>
+        <v>6344</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>5889</v>
+        <v>6508</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>6107</v>
+        <v>6738</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>6245</v>
+        <v>6866</v>
       </c>
       <c r="F264" s="0"/>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>5470</v>
+        <v>6324</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>5710</v>
+        <v>6344</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>5890</v>
+        <v>6509</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>6108</v>
+        <v>6739</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>6246</v>
+        <v>6866</v>
       </c>
       <c r="F265" s="0"/>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>5471</v>
+        <v>6324</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>5711</v>
+        <v>6344</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>5891</v>
+        <v>6510</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>6109</v>
+        <v>6740</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>6247</v>
+        <v>6866</v>
       </c>
       <c r="F266" s="0"/>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>5471</v>
+        <v>6324</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>5711</v>
+        <v>6344</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>5892</v>
+        <v>6510</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>6110</v>
+        <v>6740</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>6247</v>
+        <v>6866</v>
       </c>
       <c r="F267" s="0"/>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>5471</v>
+        <v>6324</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>5712</v>
+        <v>6345</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>5892</v>
+        <v>6511</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>6110</v>
+        <v>6741</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>6247</v>
+        <v>6866</v>
       </c>
       <c r="F268" s="0"/>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>5471</v>
+        <v>6324</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>5713</v>
+        <v>6345</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>5892</v>
+        <v>6512</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>6111</v>
+        <v>6742</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>6247</v>
+        <v>6866</v>
       </c>
       <c r="F269" s="0"/>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>5471</v>
+        <v>6324</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>5714</v>
+        <v>6345</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>5893</v>
+        <v>6513</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>6112</v>
+        <v>6743</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>6248</v>
+        <v>6866</v>
       </c>
       <c r="F270" s="0"/>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>5472</v>
+        <v>6324</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>5715</v>
+        <v>6345</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>5894</v>
+        <v>6514</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>6113</v>
+        <v>6744</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>6249</v>
+        <v>6866</v>
       </c>
       <c r="F271" s="0"/>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>5472</v>
+        <v>6324</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>5716</v>
+        <v>6345</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>5895</v>
+        <v>6515</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>6114</v>
+        <v>6745</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>6249</v>
+        <v>6866</v>
       </c>
       <c r="F272" s="0"/>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>5473</v>
+        <v>6324</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>5717</v>
+        <v>6345</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>5896</v>
+        <v>6516</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>6115</v>
+        <v>6746</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>6249</v>
+        <v>6866</v>
       </c>
       <c r="F273" s="0"/>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>5473</v>
+        <v>6324</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>5717</v>
+        <v>6345</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>5897</v>
+        <v>6517</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>6116</v>
+        <v>6747</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>6249</v>
+        <v>6867</v>
       </c>
       <c r="F274" s="0"/>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>5473</v>
+        <v>6324</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>5718</v>
+        <v>6345</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>5897</v>
+        <v>6517</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>6116</v>
+        <v>6748</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>6249</v>
+        <v>6867</v>
       </c>
       <c r="F275" s="0"/>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>5473</v>
+        <v>6324</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>5719</v>
+        <v>6345</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>5898</v>
+        <v>6518</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>6117</v>
+        <v>6749</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>6250</v>
+        <v>6868</v>
       </c>
       <c r="F276" s="0"/>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>5474</v>
+        <v>6324</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>5720</v>
+        <v>6345</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>5899</v>
+        <v>6518</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>6118</v>
+        <v>6750</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>6251</v>
+        <v>6868</v>
       </c>
       <c r="F277" s="0"/>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>5474</v>
+        <v>6324</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>5720</v>
+        <v>6345</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>5900</v>
+        <v>6519</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>6119</v>
+        <v>6751</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>6251</v>
+        <v>6868</v>
       </c>
       <c r="F278" s="0"/>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>5474</v>
+        <v>6324</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>5721</v>
+        <v>6345</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>5901</v>
+        <v>6520</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>6120</v>
+        <v>6752</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>6252</v>
+        <v>6868</v>
       </c>
       <c r="F279" s="0"/>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>5475</v>
+        <v>6325</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>5722</v>
+        <v>6346</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>5902</v>
+        <v>6521</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>6121</v>
+        <v>6753</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>6253</v>
+        <v>6868</v>
       </c>
       <c r="F280" s="0"/>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>5475</v>
+        <v>6325</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>5723</v>
+        <v>6346</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>5902</v>
+        <v>6522</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>6121</v>
+        <v>6754</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>6253</v>
+        <v>6869</v>
       </c>
       <c r="F281" s="0"/>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>5475</v>
+        <v>6325</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>5724</v>
+        <v>6346</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>5903</v>
+        <v>6523</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>6122</v>
+        <v>6755</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>6253</v>
+        <v>6870</v>
       </c>
       <c r="F282" s="0"/>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>5476</v>
+        <v>6325</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>5725</v>
+        <v>6346</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>5904</v>
+        <v>6524</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>6123</v>
+        <v>6756</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>6253</v>
+        <v>6871</v>
       </c>
       <c r="F283" s="0"/>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>5476</v>
+        <v>6325</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>5725</v>
+        <v>6346</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>5905</v>
+        <v>6525</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>6124</v>
+        <v>6757</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>6254</v>
+        <v>6872</v>
       </c>
       <c r="F284" s="0"/>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>5477</v>
+        <v>6325</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>5726</v>
+        <v>6346</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>5906</v>
+        <v>6526</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>6125</v>
+        <v>6758</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>6255</v>
+        <v>6873</v>
       </c>
       <c r="F285" s="0"/>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>5478</v>
+        <v>6325</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>5727</v>
+        <v>6346</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>5907</v>
+        <v>6527</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>6126</v>
+        <v>6759</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>6255</v>
+        <v>6874</v>
       </c>
       <c r="F286" s="0"/>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>5478</v>
+        <v>6325</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>5727</v>
+        <v>6346</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>5908</v>
+        <v>6527</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>6127</v>
+        <v>6759</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>6255</v>
+        <v>6874</v>
       </c>
       <c r="F287" s="0"/>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>5478</v>
+        <v>6325</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>5728</v>
+        <v>6346</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>5908</v>
+        <v>6527</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>6128</v>
+        <v>6759</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>6255</v>
+        <v>6874</v>
       </c>
       <c r="F288" s="0"/>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>5478</v>
+        <v>6325</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>5729</v>
+        <v>6346</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>5909</v>
+        <v>6528</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>6129</v>
+        <v>6760</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>6255</v>
+        <v>6874</v>
       </c>
       <c r="F289" s="0"/>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>5479</v>
+        <v>6325</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>5730</v>
+        <v>6346</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>5910</v>
+        <v>6528</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>6130</v>
+        <v>6761</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>6255</v>
+        <v>6874</v>
       </c>
       <c r="F290" s="0"/>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>5479</v>
+        <v>6326</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>5731</v>
+        <v>6347</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>5910</v>
+        <v>6529</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>6131</v>
+        <v>6762</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>6255</v>
+        <v>6874</v>
       </c>
       <c r="F291" s="0"/>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>5479</v>
+        <v>6326</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>5732</v>
+        <v>6347</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>5911</v>
+        <v>6529</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>6132</v>
+        <v>6763</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>6256</v>
+        <v>6874</v>
       </c>
       <c r="F292" s="0"/>
     </row>

--- a/Stats/StatsTest.xlsx
+++ b/Stats/StatsTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15209" uniqueCount="6876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16738" uniqueCount="7494">
   <si>
     <t>Player</t>
   </si>
@@ -19059,6 +19059,1860 @@
   </si>
   <si>
     <t xml:space="preserve">Tang_Yifeng </t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongTop</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>2ShortR</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3LC</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>2LongRW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>3LW</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongTop</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3LW</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2ShortTop</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2ShortR</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3RW</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2LongRC</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>2pt</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>5 / 6</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>2 / 2</t>
+  </si>
+  <si>
+    <t>3 / 4</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>1 / 3</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>3pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>1 / 5</t>
+  </si>
+  <si>
+    <t>3 / 6</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>1 / 4</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>1 / 3</t>
+  </si>
+  <si>
+    <t>0 / 3</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>2 / 3</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>4 / 4</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Regular Pass</t>
+  </si>
+  <si>
+    <t>Threat Pass</t>
+  </si>
+  <si>
+    <t>Missed Pass</t>
+  </si>
+  <si>
+    <t>shot allowed</t>
+  </si>
+  <si>
+    <t>shot contested</t>
+  </si>
+  <si>
+    <t>Def Reb</t>
+  </si>
+  <si>
+    <t>Off Reb</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off-Ball Screen</t>
+  </si>
+  <si>
+    <t>Screen Assist</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
   </si>
   <si>
     <t>Action</t>
@@ -20663,7 +22517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -20699,11 +22553,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -20733,6 +22589,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20745,7 +22603,7 @@
   <dimension ref="A1:R11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true"/>
+    <col min="1" max="1" width="12.5703125" customWidth="true"/>
     <col min="2" max="2" width="4.85546875" customWidth="true"/>
     <col min="3" max="3" width="4.85546875" customWidth="true"/>
     <col min="4" max="4" width="6.28515625" customWidth="true"/>
@@ -20767,75 +22625,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6258</v>
+        <v>6876</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6269</v>
+        <v>6887</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6279</v>
+        <v>6897</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6288</v>
+        <v>6906</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6299</v>
+        <v>6917</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6301</v>
+        <v>6919</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6302</v>
+        <v>6920</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6303</v>
+        <v>6921</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6304</v>
+        <v>6922</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>6305</v>
+        <v>6923</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>6306</v>
+        <v>6924</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>6307</v>
+        <v>6925</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>6308</v>
+        <v>6926</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>6309</v>
+        <v>6927</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>6310</v>
+        <v>6928</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>6311</v>
+        <v>6929</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>6312</v>
+        <v>6930</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>6313</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6259</v>
+        <v>6877</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6270</v>
+        <v>6888</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6280</v>
+        <v>6898</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6289</v>
+        <v>6907</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F2" s="0">
         <v>22</v>
@@ -20879,19 +22737,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6260</v>
+        <v>6878</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6271</v>
+        <v>6889</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6280</v>
+        <v>6898</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6290</v>
+        <v>6908</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F3" s="0">
         <v>9</v>
@@ -20935,19 +22793,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6261</v>
+        <v>6879</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6272</v>
+        <v>6890</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6281</v>
+        <v>6899</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6291</v>
+        <v>6909</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F4" s="0">
         <v>19</v>
@@ -20991,19 +22849,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6262</v>
+        <v>6880</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6273</v>
+        <v>6891</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6282</v>
+        <v>6900</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6292</v>
+        <v>6910</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F5" s="0">
         <v>15</v>
@@ -21047,19 +22905,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6263</v>
+        <v>6881</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6274</v>
+        <v>6892</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6283</v>
+        <v>6901</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6293</v>
+        <v>6911</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F6" s="0">
         <v>5</v>
@@ -21103,19 +22961,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6264</v>
+        <v>6882</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6275</v>
+        <v>6893</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6284</v>
+        <v>6902</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6294</v>
+        <v>6912</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F7" s="0">
         <v>16</v>
@@ -21159,19 +23017,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6265</v>
+        <v>6883</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6276</v>
+        <v>6894</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6284</v>
+        <v>6902</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6295</v>
+        <v>6913</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F8" s="0">
         <v>4</v>
@@ -21215,19 +23073,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6266</v>
+        <v>6884</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6276</v>
+        <v>6894</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6285</v>
+        <v>6903</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6296</v>
+        <v>6914</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F9" s="0">
         <v>11</v>
@@ -21271,19 +23129,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6267</v>
+        <v>6885</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6277</v>
+        <v>6895</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6286</v>
+        <v>6904</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6297</v>
+        <v>6915</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F10" s="0">
         <v>17</v>
@@ -21327,19 +23185,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6268</v>
+        <v>6886</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6278</v>
+        <v>6896</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6287</v>
+        <v>6905</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6298</v>
+        <v>6916</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6300</v>
+        <v>6918</v>
       </c>
       <c r="F11" s="0">
         <v>7</v>
@@ -21391,7 +23249,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="true"/>
-    <col min="2" max="2" width="13" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
     <col min="3" max="3" width="9.140625" customWidth="true"/>
     <col min="4" max="4" width="10.140625" customWidth="true"/>
     <col min="5" max="5" width="7.42578125" customWidth="true"/>
@@ -21400,5259 +23258,5259 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6314</v>
+        <v>6932</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6327</v>
+        <v>6945</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6348</v>
+        <v>6966</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6530</v>
+        <v>7148</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6764</v>
+        <v>7382</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6875</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6531</v>
+        <v>7149</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6531</v>
+        <v>7149</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6531</v>
+        <v>7149</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6531</v>
+        <v>7149</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6531</v>
+        <v>7149</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6531</v>
+        <v>7149</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6532</v>
+        <v>7150</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6533</v>
+        <v>7151</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6349</v>
+        <v>6967</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6534</v>
+        <v>7152</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6765</v>
+        <v>7383</v>
       </c>
       <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6350</v>
+        <v>6968</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6535</v>
+        <v>7153</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6766</v>
+        <v>7384</v>
       </c>
       <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6351</v>
+        <v>6969</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6536</v>
+        <v>7154</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6351</v>
+        <v>6969</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6537</v>
+        <v>7155</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6352</v>
+        <v>6970</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6538</v>
+        <v>7156</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6353</v>
+        <v>6971</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6539</v>
+        <v>7157</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6353</v>
+        <v>6971</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>6539</v>
+        <v>7157</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6353</v>
+        <v>6971</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>6539</v>
+        <v>7157</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6354</v>
+        <v>6972</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6540</v>
+        <v>7158</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6355</v>
+        <v>6973</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6541</v>
+        <v>7159</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6356</v>
+        <v>6974</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>6542</v>
+        <v>7160</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6357</v>
+        <v>6975</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6543</v>
+        <v>7161</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6357</v>
+        <v>6975</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>6543</v>
+        <v>7161</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6357</v>
+        <v>6975</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>6544</v>
+        <v>7162</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6357</v>
+        <v>6975</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6545</v>
+        <v>7163</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6328</v>
+        <v>6946</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6358</v>
+        <v>6976</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>6546</v>
+        <v>7164</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>6767</v>
+        <v>7385</v>
       </c>
       <c r="F25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6359</v>
+        <v>6977</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>6547</v>
+        <v>7165</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>6768</v>
+        <v>7386</v>
       </c>
       <c r="F26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6360</v>
+        <v>6978</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6548</v>
+        <v>7166</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>6769</v>
+        <v>7387</v>
       </c>
       <c r="F27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6361</v>
+        <v>6979</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>6549</v>
+        <v>7167</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>6769</v>
+        <v>7387</v>
       </c>
       <c r="F28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6362</v>
+        <v>6980</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>6550</v>
+        <v>7168</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>6769</v>
+        <v>7387</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6362</v>
+        <v>6980</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>6551</v>
+        <v>7169</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>6769</v>
+        <v>7387</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6363</v>
+        <v>6981</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>6552</v>
+        <v>7170</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>6770</v>
+        <v>7388</v>
       </c>
       <c r="F31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6364</v>
+        <v>6982</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>6553</v>
+        <v>7171</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>6771</v>
+        <v>7389</v>
       </c>
       <c r="F32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6365</v>
+        <v>6983</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>6554</v>
+        <v>7172</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>6772</v>
+        <v>7390</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6365</v>
+        <v>6983</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>6554</v>
+        <v>7172</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>6773</v>
+        <v>7391</v>
       </c>
       <c r="F34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>6366</v>
+        <v>6984</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>6555</v>
+        <v>7173</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6367</v>
+        <v>6985</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>6556</v>
+        <v>7174</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>6368</v>
+        <v>6986</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>6557</v>
+        <v>7175</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>6369</v>
+        <v>6987</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>6558</v>
+        <v>7176</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>6369</v>
+        <v>6987</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>6558</v>
+        <v>7176</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>6369</v>
+        <v>6987</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>6559</v>
+        <v>7177</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>6370</v>
+        <v>6988</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>6560</v>
+        <v>7178</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>6371</v>
+        <v>6989</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>6561</v>
+        <v>7179</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>6371</v>
+        <v>6989</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>6562</v>
+        <v>7180</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>6774</v>
+        <v>7392</v>
       </c>
       <c r="F43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>6372</v>
+        <v>6990</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>6563</v>
+        <v>7181</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>6775</v>
+        <v>7393</v>
       </c>
       <c r="F44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>6373</v>
+        <v>6991</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>6564</v>
+        <v>7182</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>6776</v>
+        <v>7394</v>
       </c>
       <c r="F45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6374</v>
+        <v>6992</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>6565</v>
+        <v>7183</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>6776</v>
+        <v>7394</v>
       </c>
       <c r="F46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>6375</v>
+        <v>6993</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>6566</v>
+        <v>7184</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>6777</v>
+        <v>7395</v>
       </c>
       <c r="F47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>6376</v>
+        <v>6994</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>6567</v>
+        <v>7185</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>6778</v>
+        <v>7396</v>
       </c>
       <c r="F48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>6377</v>
+        <v>6995</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>6568</v>
+        <v>7186</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>6778</v>
+        <v>7396</v>
       </c>
       <c r="F49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>6378</v>
+        <v>6996</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>6569</v>
+        <v>7187</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>6778</v>
+        <v>7396</v>
       </c>
       <c r="F50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>6329</v>
+        <v>6947</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6379</v>
+        <v>6997</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>6570</v>
+        <v>7188</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>6779</v>
+        <v>7397</v>
       </c>
       <c r="F51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>6571</v>
+        <v>7189</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>6571</v>
+        <v>7189</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>6571</v>
+        <v>7189</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>6571</v>
+        <v>7189</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>6571</v>
+        <v>7189</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>6571</v>
+        <v>7189</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>6380</v>
+        <v>6998</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>6572</v>
+        <v>7190</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>6780</v>
+        <v>7398</v>
       </c>
       <c r="F58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>6381</v>
+        <v>6999</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>6573</v>
+        <v>7191</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>6781</v>
+        <v>7399</v>
       </c>
       <c r="F59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>6382</v>
+        <v>7000</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>6574</v>
+        <v>7192</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>6383</v>
+        <v>7001</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>6575</v>
+        <v>7193</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>6383</v>
+        <v>7001</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>6575</v>
+        <v>7193</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>6384</v>
+        <v>7002</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>6576</v>
+        <v>7194</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>6385</v>
+        <v>7003</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>6577</v>
+        <v>7195</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>6385</v>
+        <v>7003</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>6578</v>
+        <v>7196</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>6386</v>
+        <v>7004</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>6579</v>
+        <v>7197</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>6580</v>
+        <v>7198</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>6581</v>
+        <v>7199</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>6582</v>
+        <v>7200</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>6583</v>
+        <v>7201</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>6583</v>
+        <v>7201</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6584</v>
+        <v>7202</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>6585</v>
+        <v>7203</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>6387</v>
+        <v>7005</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>6585</v>
+        <v>7203</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>6388</v>
+        <v>7006</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>6586</v>
+        <v>7204</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>6389</v>
+        <v>7007</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>6587</v>
+        <v>7205</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>6782</v>
+        <v>7400</v>
       </c>
       <c r="F76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>6390</v>
+        <v>7008</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>6588</v>
+        <v>7206</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>6783</v>
+        <v>7401</v>
       </c>
       <c r="F77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>6315</v>
+        <v>6933</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>6330</v>
+        <v>6948</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>6390</v>
+        <v>7008</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>6589</v>
+        <v>7207</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>6783</v>
+        <v>7401</v>
       </c>
       <c r="F78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>6391</v>
+        <v>7009</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>6590</v>
+        <v>7208</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>6784</v>
+        <v>7402</v>
       </c>
       <c r="F79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>6392</v>
+        <v>7010</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>6591</v>
+        <v>7209</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>6785</v>
+        <v>7403</v>
       </c>
       <c r="F80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>6592</v>
+        <v>7210</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>6593</v>
+        <v>7211</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F82" s="0"/>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>6594</v>
+        <v>7212</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>6594</v>
+        <v>7212</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>6594</v>
+        <v>7212</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>6594</v>
+        <v>7212</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F86" s="0"/>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>6393</v>
+        <v>7011</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>6594</v>
+        <v>7212</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>6786</v>
+        <v>7404</v>
       </c>
       <c r="F87" s="0"/>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>6394</v>
+        <v>7012</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>6595</v>
+        <v>7213</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>6787</v>
+        <v>7405</v>
       </c>
       <c r="F88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>6395</v>
+        <v>7013</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>6596</v>
+        <v>7214</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>6788</v>
+        <v>7406</v>
       </c>
       <c r="F89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>6395</v>
+        <v>7013</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>6596</v>
+        <v>7214</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>6788</v>
+        <v>7406</v>
       </c>
       <c r="F90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>6396</v>
+        <v>7014</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>6597</v>
+        <v>7215</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>6789</v>
+        <v>7407</v>
       </c>
       <c r="F91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>6396</v>
+        <v>7014</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>6598</v>
+        <v>7216</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>6789</v>
+        <v>7407</v>
       </c>
       <c r="F92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>6397</v>
+        <v>7015</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>6599</v>
+        <v>7217</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>6790</v>
+        <v>7408</v>
       </c>
       <c r="F93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>6397</v>
+        <v>7015</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>6599</v>
+        <v>7217</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>6790</v>
+        <v>7408</v>
       </c>
       <c r="F94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>6398</v>
+        <v>7016</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>6600</v>
+        <v>7218</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>6791</v>
+        <v>7409</v>
       </c>
       <c r="F95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>6398</v>
+        <v>7016</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>6601</v>
+        <v>7219</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>6792</v>
+        <v>7410</v>
       </c>
       <c r="F96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>6331</v>
+        <v>6949</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>6398</v>
+        <v>7016</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>6602</v>
+        <v>7220</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>6793</v>
+        <v>7411</v>
       </c>
       <c r="F97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>6399</v>
+        <v>7017</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>6603</v>
+        <v>7221</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>6794</v>
+        <v>7412</v>
       </c>
       <c r="F98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>6399</v>
+        <v>7017</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>6604</v>
+        <v>7222</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>6794</v>
+        <v>7412</v>
       </c>
       <c r="F99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>6400</v>
+        <v>7018</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>6605</v>
+        <v>7223</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>6794</v>
+        <v>7412</v>
       </c>
       <c r="F100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>6401</v>
+        <v>7019</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>6606</v>
+        <v>7224</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>6795</v>
+        <v>7413</v>
       </c>
       <c r="F101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>6402</v>
+        <v>7020</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>6607</v>
+        <v>7225</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>6796</v>
+        <v>7414</v>
       </c>
       <c r="F102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>6403</v>
+        <v>7021</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>6608</v>
+        <v>7226</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>6797</v>
+        <v>7415</v>
       </c>
       <c r="F103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>6403</v>
+        <v>7021</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>6609</v>
+        <v>7227</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>6797</v>
+        <v>7415</v>
       </c>
       <c r="F104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>6404</v>
+        <v>7022</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>6610</v>
+        <v>7228</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>6798</v>
+        <v>7416</v>
       </c>
       <c r="F105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>6405</v>
+        <v>7023</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>6611</v>
+        <v>7229</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>6799</v>
+        <v>7417</v>
       </c>
       <c r="F106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>6405</v>
+        <v>7023</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>6612</v>
+        <v>7230</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>6799</v>
+        <v>7417</v>
       </c>
       <c r="F107" s="0"/>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>6405</v>
+        <v>7023</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>6613</v>
+        <v>7231</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>6800</v>
+        <v>7418</v>
       </c>
       <c r="F108" s="0"/>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>6406</v>
+        <v>7024</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>6614</v>
+        <v>7232</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>6801</v>
+        <v>7419</v>
       </c>
       <c r="F109" s="0"/>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>6406</v>
+        <v>7024</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>6614</v>
+        <v>7232</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>6801</v>
+        <v>7419</v>
       </c>
       <c r="F110" s="0"/>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>6407</v>
+        <v>7025</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>6615</v>
+        <v>7233</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>6802</v>
+        <v>7420</v>
       </c>
       <c r="F111" s="0"/>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>6408</v>
+        <v>7026</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>6616</v>
+        <v>7234</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>6803</v>
+        <v>7421</v>
       </c>
       <c r="F112" s="0"/>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>6408</v>
+        <v>7026</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>6617</v>
+        <v>7235</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>6803</v>
+        <v>7421</v>
       </c>
       <c r="F113" s="0"/>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>6409</v>
+        <v>7027</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>6618</v>
+        <v>7236</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>6804</v>
+        <v>7422</v>
       </c>
       <c r="F114" s="0"/>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>6409</v>
+        <v>7027</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>6619</v>
+        <v>7237</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>6805</v>
+        <v>7423</v>
       </c>
       <c r="F115" s="0"/>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>6410</v>
+        <v>7028</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>6620</v>
+        <v>7238</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>6806</v>
+        <v>7424</v>
       </c>
       <c r="F116" s="0"/>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>6410</v>
+        <v>7028</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>6621</v>
+        <v>7239</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>6806</v>
+        <v>7424</v>
       </c>
       <c r="F117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>6316</v>
+        <v>6934</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>6332</v>
+        <v>6950</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>6411</v>
+        <v>7029</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>6622</v>
+        <v>7240</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>6807</v>
+        <v>7425</v>
       </c>
       <c r="F118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>6412</v>
+        <v>7030</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>6623</v>
+        <v>7241</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>6808</v>
+        <v>7426</v>
       </c>
       <c r="F119" s="0"/>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>6413</v>
+        <v>7031</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>6624</v>
+        <v>7242</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>6809</v>
+        <v>7427</v>
       </c>
       <c r="F120" s="0"/>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>6414</v>
+        <v>7032</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>6625</v>
+        <v>7243</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>6810</v>
+        <v>7428</v>
       </c>
       <c r="F121" s="0"/>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>6414</v>
+        <v>7032</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>6625</v>
+        <v>7243</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>6810</v>
+        <v>7428</v>
       </c>
       <c r="F122" s="0"/>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>6414</v>
+        <v>7032</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>6625</v>
+        <v>7243</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>6810</v>
+        <v>7428</v>
       </c>
       <c r="F123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>6414</v>
+        <v>7032</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>6625</v>
+        <v>7243</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>6810</v>
+        <v>7428</v>
       </c>
       <c r="F124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>6414</v>
+        <v>7032</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>6625</v>
+        <v>7243</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>6810</v>
+        <v>7428</v>
       </c>
       <c r="F125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>6415</v>
+        <v>7033</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>6626</v>
+        <v>7244</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>6811</v>
+        <v>7429</v>
       </c>
       <c r="F126" s="0"/>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>6416</v>
+        <v>7034</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>6627</v>
+        <v>7245</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>6812</v>
+        <v>7430</v>
       </c>
       <c r="F127" s="0"/>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>6416</v>
+        <v>7034</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>6627</v>
+        <v>7245</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>6812</v>
+        <v>7430</v>
       </c>
       <c r="F128" s="0"/>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>6317</v>
+        <v>6935</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>6333</v>
+        <v>6951</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>6416</v>
+        <v>7034</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>6627</v>
+        <v>7245</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>6812</v>
+        <v>7430</v>
       </c>
       <c r="F129" s="0"/>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>6416</v>
+        <v>7034</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>6627</v>
+        <v>7245</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>6812</v>
+        <v>7430</v>
       </c>
       <c r="F130" s="0"/>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>6417</v>
+        <v>7035</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>6628</v>
+        <v>7246</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>6813</v>
+        <v>7431</v>
       </c>
       <c r="F131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>6418</v>
+        <v>7036</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>6629</v>
+        <v>7247</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>6814</v>
+        <v>7432</v>
       </c>
       <c r="F132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>6419</v>
+        <v>7037</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>6630</v>
+        <v>7248</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>6815</v>
+        <v>7433</v>
       </c>
       <c r="F133" s="0"/>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>6419</v>
+        <v>7037</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>6631</v>
+        <v>7249</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>6815</v>
+        <v>7433</v>
       </c>
       <c r="F134" s="0"/>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>6419</v>
+        <v>7037</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>6632</v>
+        <v>7250</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>6816</v>
+        <v>7434</v>
       </c>
       <c r="F135" s="0"/>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>6420</v>
+        <v>7038</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>6633</v>
+        <v>7251</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>6817</v>
+        <v>7435</v>
       </c>
       <c r="F136" s="0"/>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>6421</v>
+        <v>7039</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>6634</v>
+        <v>7252</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>6817</v>
+        <v>7435</v>
       </c>
       <c r="F137" s="0"/>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>6422</v>
+        <v>7040</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>6635</v>
+        <v>7253</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>6817</v>
+        <v>7435</v>
       </c>
       <c r="F138" s="0"/>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>6334</v>
+        <v>6952</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>6423</v>
+        <v>7041</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>6636</v>
+        <v>7254</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>6817</v>
+        <v>7435</v>
       </c>
       <c r="F139" s="0"/>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>6424</v>
+        <v>7042</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>6637</v>
+        <v>7255</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>6818</v>
+        <v>7436</v>
       </c>
       <c r="F140" s="0"/>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>6425</v>
+        <v>7043</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>6638</v>
+        <v>7256</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>6819</v>
+        <v>7437</v>
       </c>
       <c r="F141" s="0"/>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>6426</v>
+        <v>7044</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>6639</v>
+        <v>7257</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>6819</v>
+        <v>7437</v>
       </c>
       <c r="F142" s="0"/>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>6427</v>
+        <v>7045</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>6640</v>
+        <v>7258</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>6819</v>
+        <v>7437</v>
       </c>
       <c r="F143" s="0"/>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>6428</v>
+        <v>7046</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>6641</v>
+        <v>7259</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>6820</v>
+        <v>7438</v>
       </c>
       <c r="F144" s="0"/>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>6429</v>
+        <v>7047</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>6642</v>
+        <v>7260</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>6821</v>
+        <v>7439</v>
       </c>
       <c r="F145" s="0"/>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>6429</v>
+        <v>7047</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>6642</v>
+        <v>7260</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>6821</v>
+        <v>7439</v>
       </c>
       <c r="F146" s="0"/>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>6430</v>
+        <v>7048</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>6643</v>
+        <v>7261</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>6821</v>
+        <v>7439</v>
       </c>
       <c r="F147" s="0"/>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>6431</v>
+        <v>7049</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>6644</v>
+        <v>7262</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>6822</v>
+        <v>7440</v>
       </c>
       <c r="F148" s="0"/>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>6432</v>
+        <v>7050</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>6645</v>
+        <v>7263</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>6823</v>
+        <v>7441</v>
       </c>
       <c r="F149" s="0"/>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>6433</v>
+        <v>7051</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>6646</v>
+        <v>7264</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>6823</v>
+        <v>7441</v>
       </c>
       <c r="F150" s="0"/>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>6434</v>
+        <v>7052</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>6647</v>
+        <v>7265</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>6824</v>
+        <v>7442</v>
       </c>
       <c r="F151" s="0"/>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>6435</v>
+        <v>7053</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>6648</v>
+        <v>7266</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>6825</v>
+        <v>7443</v>
       </c>
       <c r="F152" s="0"/>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>6435</v>
+        <v>7053</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>6649</v>
+        <v>7267</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>6825</v>
+        <v>7443</v>
       </c>
       <c r="F153" s="0"/>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>6436</v>
+        <v>7054</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>6650</v>
+        <v>7268</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>6825</v>
+        <v>7443</v>
       </c>
       <c r="F154" s="0"/>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>6437</v>
+        <v>7055</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>6651</v>
+        <v>7269</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>6825</v>
+        <v>7443</v>
       </c>
       <c r="F155" s="0"/>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>6438</v>
+        <v>7056</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>6652</v>
+        <v>7270</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>6825</v>
+        <v>7443</v>
       </c>
       <c r="F156" s="0"/>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>6439</v>
+        <v>7057</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>6653</v>
+        <v>7271</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>6826</v>
+        <v>7444</v>
       </c>
       <c r="F157" s="0"/>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>6440</v>
+        <v>7058</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>6654</v>
+        <v>7272</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F158" s="0"/>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>6440</v>
+        <v>7058</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>6654</v>
+        <v>7272</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F159" s="0"/>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>6441</v>
+        <v>7059</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>6655</v>
+        <v>7273</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F160" s="0"/>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>6442</v>
+        <v>7060</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>6656</v>
+        <v>7274</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F161" s="0"/>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>6442</v>
+        <v>7060</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>6656</v>
+        <v>7274</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F162" s="0"/>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>6443</v>
+        <v>7061</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>6657</v>
+        <v>7275</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F163" s="0"/>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>6444</v>
+        <v>7062</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>6658</v>
+        <v>7276</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F164" s="0"/>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>6445</v>
+        <v>7063</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>6659</v>
+        <v>7277</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F165" s="0"/>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>6446</v>
+        <v>7064</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>6660</v>
+        <v>7278</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F166" s="0"/>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>6446</v>
+        <v>7064</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>6661</v>
+        <v>7279</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>6827</v>
+        <v>7445</v>
       </c>
       <c r="F167" s="0"/>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>6318</v>
+        <v>6936</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>6335</v>
+        <v>6953</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>6447</v>
+        <v>7065</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>6662</v>
+        <v>7280</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>6828</v>
+        <v>7446</v>
       </c>
       <c r="F168" s="0"/>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>6448</v>
+        <v>7066</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>6663</v>
+        <v>7281</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>6829</v>
+        <v>7447</v>
       </c>
       <c r="F169" s="0"/>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>6448</v>
+        <v>7066</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>6663</v>
+        <v>7281</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>6829</v>
+        <v>7447</v>
       </c>
       <c r="F170" s="0"/>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>6449</v>
+        <v>7067</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>6664</v>
+        <v>7282</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>6830</v>
+        <v>7448</v>
       </c>
       <c r="F171" s="0"/>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>6450</v>
+        <v>7068</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>6665</v>
+        <v>7283</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>6831</v>
+        <v>7449</v>
       </c>
       <c r="F172" s="0"/>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>6450</v>
+        <v>7068</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>6665</v>
+        <v>7283</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>6831</v>
+        <v>7449</v>
       </c>
       <c r="F173" s="0"/>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>6450</v>
+        <v>7068</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>6665</v>
+        <v>7283</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>6831</v>
+        <v>7449</v>
       </c>
       <c r="F174" s="0"/>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>6451</v>
+        <v>7069</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>6666</v>
+        <v>7284</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>6832</v>
+        <v>7450</v>
       </c>
       <c r="F175" s="0"/>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>6452</v>
+        <v>7070</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>6667</v>
+        <v>7285</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>6833</v>
+        <v>7451</v>
       </c>
       <c r="F176" s="0"/>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>6453</v>
+        <v>7071</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>6668</v>
+        <v>7286</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>6833</v>
+        <v>7451</v>
       </c>
       <c r="F177" s="0"/>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>6454</v>
+        <v>7072</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>6669</v>
+        <v>7287</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>6833</v>
+        <v>7451</v>
       </c>
       <c r="F178" s="0"/>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>6454</v>
+        <v>7072</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>6669</v>
+        <v>7287</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>6833</v>
+        <v>7451</v>
       </c>
       <c r="F179" s="0"/>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>6454</v>
+        <v>7072</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>6669</v>
+        <v>7287</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>6833</v>
+        <v>7451</v>
       </c>
       <c r="F180" s="0"/>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>6454</v>
+        <v>7072</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>6669</v>
+        <v>7287</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>6833</v>
+        <v>7451</v>
       </c>
       <c r="F181" s="0"/>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>6455</v>
+        <v>7073</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>6670</v>
+        <v>7288</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>6834</v>
+        <v>7452</v>
       </c>
       <c r="F182" s="0"/>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>6456</v>
+        <v>7074</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>6671</v>
+        <v>7289</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>6835</v>
+        <v>7453</v>
       </c>
       <c r="F183" s="0"/>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>6457</v>
+        <v>7075</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>6672</v>
+        <v>7290</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>6835</v>
+        <v>7453</v>
       </c>
       <c r="F184" s="0"/>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>6458</v>
+        <v>7076</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>6673</v>
+        <v>7291</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>6836</v>
+        <v>7454</v>
       </c>
       <c r="F185" s="0"/>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>6458</v>
+        <v>7076</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>6674</v>
+        <v>7292</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>6837</v>
+        <v>7455</v>
       </c>
       <c r="F186" s="0"/>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>6319</v>
+        <v>6937</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>6336</v>
+        <v>6954</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>6459</v>
+        <v>7077</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>6675</v>
+        <v>7293</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>6838</v>
+        <v>7456</v>
       </c>
       <c r="F187" s="0"/>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>6460</v>
+        <v>7078</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>6676</v>
+        <v>7294</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>6838</v>
+        <v>7456</v>
       </c>
       <c r="F188" s="0"/>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>6461</v>
+        <v>7079</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>6677</v>
+        <v>7295</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>6838</v>
+        <v>7456</v>
       </c>
       <c r="F189" s="0"/>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>6461</v>
+        <v>7079</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>6677</v>
+        <v>7295</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>6838</v>
+        <v>7456</v>
       </c>
       <c r="F190" s="0"/>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>6461</v>
+        <v>7079</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>6678</v>
+        <v>7296</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>6838</v>
+        <v>7456</v>
       </c>
       <c r="F191" s="0"/>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>6462</v>
+        <v>7080</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>6679</v>
+        <v>7297</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>6839</v>
+        <v>7457</v>
       </c>
       <c r="F192" s="0"/>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>6463</v>
+        <v>7081</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>6680</v>
+        <v>7298</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>6840</v>
+        <v>7458</v>
       </c>
       <c r="F193" s="0"/>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>6464</v>
+        <v>7082</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>6681</v>
+        <v>7299</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>6840</v>
+        <v>7458</v>
       </c>
       <c r="F194" s="0"/>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>6465</v>
+        <v>7083</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>6682</v>
+        <v>7300</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>6840</v>
+        <v>7458</v>
       </c>
       <c r="F195" s="0"/>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>6466</v>
+        <v>7084</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>6683</v>
+        <v>7301</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>6840</v>
+        <v>7458</v>
       </c>
       <c r="F196" s="0"/>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>6467</v>
+        <v>7085</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>6684</v>
+        <v>7302</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>6840</v>
+        <v>7458</v>
       </c>
       <c r="F197" s="0"/>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>6468</v>
+        <v>7086</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>6685</v>
+        <v>7303</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>6841</v>
+        <v>7459</v>
       </c>
       <c r="F198" s="0"/>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>6469</v>
+        <v>7087</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>6686</v>
+        <v>7304</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>6842</v>
+        <v>7460</v>
       </c>
       <c r="F199" s="0"/>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>6469</v>
+        <v>7087</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>6687</v>
+        <v>7305</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>6842</v>
+        <v>7460</v>
       </c>
       <c r="F200" s="0"/>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>6469</v>
+        <v>7087</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>6688</v>
+        <v>7306</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>6842</v>
+        <v>7460</v>
       </c>
       <c r="F201" s="0"/>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>6469</v>
+        <v>7087</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>6689</v>
+        <v>7307</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>6842</v>
+        <v>7460</v>
       </c>
       <c r="F202" s="0"/>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>6320</v>
+        <v>6938</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>6337</v>
+        <v>6955</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>6469</v>
+        <v>7087</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>6689</v>
+        <v>7307</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>6842</v>
+        <v>7460</v>
       </c>
       <c r="F203" s="0"/>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>6469</v>
+        <v>7087</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>6689</v>
+        <v>7307</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>6842</v>
+        <v>7460</v>
       </c>
       <c r="F204" s="0"/>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>6470</v>
+        <v>7088</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>6690</v>
+        <v>7308</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>6843</v>
+        <v>7461</v>
       </c>
       <c r="F205" s="0"/>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>6471</v>
+        <v>7089</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>6691</v>
+        <v>7309</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>6844</v>
+        <v>7462</v>
       </c>
       <c r="F206" s="0"/>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>6471</v>
+        <v>7089</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>6692</v>
+        <v>7310</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>6844</v>
+        <v>7462</v>
       </c>
       <c r="F207" s="0"/>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>6471</v>
+        <v>7089</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>6693</v>
+        <v>7311</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>6844</v>
+        <v>7462</v>
       </c>
       <c r="F208" s="0"/>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>6471</v>
+        <v>7089</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>6693</v>
+        <v>7311</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>6844</v>
+        <v>7462</v>
       </c>
       <c r="F209" s="0"/>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>6471</v>
+        <v>7089</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>6693</v>
+        <v>7311</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>6844</v>
+        <v>7462</v>
       </c>
       <c r="F210" s="0"/>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>6471</v>
+        <v>7089</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>6693</v>
+        <v>7311</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>6844</v>
+        <v>7462</v>
       </c>
       <c r="F211" s="0"/>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>6472</v>
+        <v>7090</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>6694</v>
+        <v>7312</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>6845</v>
+        <v>7463</v>
       </c>
       <c r="F212" s="0"/>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>6473</v>
+        <v>7091</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>6695</v>
+        <v>7313</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F213" s="0"/>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>6474</v>
+        <v>7092</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>6696</v>
+        <v>7314</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F214" s="0"/>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>6338</v>
+        <v>6956</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>6475</v>
+        <v>7093</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>6697</v>
+        <v>7315</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F215" s="0"/>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>6339</v>
+        <v>6957</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>6475</v>
+        <v>7093</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>6697</v>
+        <v>7315</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F216" s="0"/>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>6339</v>
+        <v>6957</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>6476</v>
+        <v>7094</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>6698</v>
+        <v>7316</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F217" s="0"/>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>6339</v>
+        <v>6957</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>6477</v>
+        <v>7095</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>6699</v>
+        <v>7317</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F218" s="0"/>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>6339</v>
+        <v>6957</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>6477</v>
+        <v>7095</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>6700</v>
+        <v>7318</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F219" s="0"/>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>6339</v>
+        <v>6957</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>6477</v>
+        <v>7095</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>6701</v>
+        <v>7319</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F220" s="0"/>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>6339</v>
+        <v>6957</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>6477</v>
+        <v>7095</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>6702</v>
+        <v>7320</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F221" s="0"/>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>6477</v>
+        <v>7095</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>6703</v>
+        <v>7321</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F222" s="0"/>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>6478</v>
+        <v>7096</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>6704</v>
+        <v>7322</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F223" s="0"/>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>6479</v>
+        <v>7097</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>6705</v>
+        <v>7323</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>6846</v>
+        <v>7464</v>
       </c>
       <c r="F224" s="0"/>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>6480</v>
+        <v>7098</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>6706</v>
+        <v>7324</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>6847</v>
+        <v>7465</v>
       </c>
       <c r="F225" s="0"/>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>6481</v>
+        <v>7099</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>6707</v>
+        <v>7325</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>6848</v>
+        <v>7466</v>
       </c>
       <c r="F226" s="0"/>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>6481</v>
+        <v>7099</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>6708</v>
+        <v>7326</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>6848</v>
+        <v>7466</v>
       </c>
       <c r="F227" s="0"/>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>6481</v>
+        <v>7099</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>6709</v>
+        <v>7327</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>6848</v>
+        <v>7466</v>
       </c>
       <c r="F228" s="0"/>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>6481</v>
+        <v>7099</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>6710</v>
+        <v>7328</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>6848</v>
+        <v>7466</v>
       </c>
       <c r="F229" s="0"/>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>6481</v>
+        <v>7099</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>6710</v>
+        <v>7328</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>6848</v>
+        <v>7466</v>
       </c>
       <c r="F230" s="0"/>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>6482</v>
+        <v>7100</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>6711</v>
+        <v>7329</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>6849</v>
+        <v>7467</v>
       </c>
       <c r="F231" s="0"/>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>6483</v>
+        <v>7101</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>6712</v>
+        <v>7330</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>6850</v>
+        <v>7468</v>
       </c>
       <c r="F232" s="0"/>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>6484</v>
+        <v>7102</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>6713</v>
+        <v>7331</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>6851</v>
+        <v>7469</v>
       </c>
       <c r="F233" s="0"/>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>6321</v>
+        <v>6939</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>6340</v>
+        <v>6958</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>6485</v>
+        <v>7103</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>6714</v>
+        <v>7332</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>6852</v>
+        <v>7470</v>
       </c>
       <c r="F234" s="0"/>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>6485</v>
+        <v>7103</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>6715</v>
+        <v>7333</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>6852</v>
+        <v>7470</v>
       </c>
       <c r="F235" s="0"/>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>6486</v>
+        <v>7104</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>6716</v>
+        <v>7334</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>6853</v>
+        <v>7471</v>
       </c>
       <c r="F236" s="0"/>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>6487</v>
+        <v>7105</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>6717</v>
+        <v>7335</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>6854</v>
+        <v>7472</v>
       </c>
       <c r="F237" s="0"/>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>6488</v>
+        <v>7106</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>6718</v>
+        <v>7336</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>6855</v>
+        <v>7473</v>
       </c>
       <c r="F238" s="0"/>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>6489</v>
+        <v>7107</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>6719</v>
+        <v>7337</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>6856</v>
+        <v>7474</v>
       </c>
       <c r="F239" s="0"/>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>6490</v>
+        <v>7108</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>6720</v>
+        <v>7338</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>6856</v>
+        <v>7474</v>
       </c>
       <c r="F240" s="0"/>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>6491</v>
+        <v>7109</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>6721</v>
+        <v>7339</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>6856</v>
+        <v>7474</v>
       </c>
       <c r="F241" s="0"/>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>6492</v>
+        <v>7110</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>6722</v>
+        <v>7340</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>6857</v>
+        <v>7475</v>
       </c>
       <c r="F242" s="0"/>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>6493</v>
+        <v>7111</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>6723</v>
+        <v>7341</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>6858</v>
+        <v>7476</v>
       </c>
       <c r="F243" s="0"/>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>6341</v>
+        <v>6959</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>6494</v>
+        <v>7112</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>6724</v>
+        <v>7342</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>6858</v>
+        <v>7476</v>
       </c>
       <c r="F244" s="0"/>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>6342</v>
+        <v>6960</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>6494</v>
+        <v>7112</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>6724</v>
+        <v>7342</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>6858</v>
+        <v>7476</v>
       </c>
       <c r="F245" s="0"/>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>6342</v>
+        <v>6960</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>6495</v>
+        <v>7113</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>6725</v>
+        <v>7343</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>6859</v>
+        <v>7477</v>
       </c>
       <c r="F246" s="0"/>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>6342</v>
+        <v>6960</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>6496</v>
+        <v>7114</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>6726</v>
+        <v>7344</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>6860</v>
+        <v>7478</v>
       </c>
       <c r="F247" s="0"/>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>6342</v>
+        <v>6960</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>6497</v>
+        <v>7115</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>6727</v>
+        <v>7345</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>6860</v>
+        <v>7478</v>
       </c>
       <c r="F248" s="0"/>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>6342</v>
+        <v>6960</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>6497</v>
+        <v>7115</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>6727</v>
+        <v>7345</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>6860</v>
+        <v>7478</v>
       </c>
       <c r="F249" s="0"/>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>6322</v>
+        <v>6940</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>6342</v>
+        <v>6960</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>6498</v>
+        <v>7116</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>6728</v>
+        <v>7346</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>6861</v>
+        <v>7479</v>
       </c>
       <c r="F250" s="0"/>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>6499</v>
+        <v>7117</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>6729</v>
+        <v>7347</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>6862</v>
+        <v>7480</v>
       </c>
       <c r="F251" s="0"/>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>6499</v>
+        <v>7117</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>6729</v>
+        <v>7347</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>6862</v>
+        <v>7480</v>
       </c>
       <c r="F252" s="0"/>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>6499</v>
+        <v>7117</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>6729</v>
+        <v>7347</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>6862</v>
+        <v>7480</v>
       </c>
       <c r="F253" s="0"/>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>6500</v>
+        <v>7118</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>6730</v>
+        <v>7348</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>6863</v>
+        <v>7481</v>
       </c>
       <c r="F254" s="0"/>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>6501</v>
+        <v>7119</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>6731</v>
+        <v>7349</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>6864</v>
+        <v>7482</v>
       </c>
       <c r="F255" s="0"/>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>6502</v>
+        <v>7120</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>6732</v>
+        <v>7350</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>6864</v>
+        <v>7482</v>
       </c>
       <c r="F256" s="0"/>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>6502</v>
+        <v>7120</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>6732</v>
+        <v>7350</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>6864</v>
+        <v>7482</v>
       </c>
       <c r="F257" s="0"/>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>6502</v>
+        <v>7120</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>6732</v>
+        <v>7350</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>6864</v>
+        <v>7482</v>
       </c>
       <c r="F258" s="0"/>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>6503</v>
+        <v>7121</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>6733</v>
+        <v>7351</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>6865</v>
+        <v>7483</v>
       </c>
       <c r="F259" s="0"/>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>6504</v>
+        <v>7122</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>6734</v>
+        <v>7352</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F260" s="0"/>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>6505</v>
+        <v>7123</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>6735</v>
+        <v>7353</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F261" s="0"/>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>6506</v>
+        <v>7124</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>6736</v>
+        <v>7354</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F262" s="0"/>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>6323</v>
+        <v>6941</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>6343</v>
+        <v>6961</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>6507</v>
+        <v>7125</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>6737</v>
+        <v>7355</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F263" s="0"/>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>6344</v>
+        <v>6962</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>6508</v>
+        <v>7126</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>6738</v>
+        <v>7356</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F264" s="0"/>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>6344</v>
+        <v>6962</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>6509</v>
+        <v>7127</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>6739</v>
+        <v>7357</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F265" s="0"/>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>6344</v>
+        <v>6962</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>6510</v>
+        <v>7128</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>6740</v>
+        <v>7358</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F266" s="0"/>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>6344</v>
+        <v>6962</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>6510</v>
+        <v>7128</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>6740</v>
+        <v>7358</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F267" s="0"/>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>6511</v>
+        <v>7129</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>6741</v>
+        <v>7359</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F268" s="0"/>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>6512</v>
+        <v>7130</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>6742</v>
+        <v>7360</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F269" s="0"/>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>6513</v>
+        <v>7131</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>6743</v>
+        <v>7361</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F270" s="0"/>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>6514</v>
+        <v>7132</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>6744</v>
+        <v>7362</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F271" s="0"/>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>6515</v>
+        <v>7133</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>6745</v>
+        <v>7363</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F272" s="0"/>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>6516</v>
+        <v>7134</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>6746</v>
+        <v>7364</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>6866</v>
+        <v>7484</v>
       </c>
       <c r="F273" s="0"/>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>6517</v>
+        <v>7135</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>6747</v>
+        <v>7365</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>6867</v>
+        <v>7485</v>
       </c>
       <c r="F274" s="0"/>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>6517</v>
+        <v>7135</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>6748</v>
+        <v>7366</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>6867</v>
+        <v>7485</v>
       </c>
       <c r="F275" s="0"/>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>6518</v>
+        <v>7136</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>6749</v>
+        <v>7367</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>6868</v>
+        <v>7486</v>
       </c>
       <c r="F276" s="0"/>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>6518</v>
+        <v>7136</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>6750</v>
+        <v>7368</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>6868</v>
+        <v>7486</v>
       </c>
       <c r="F277" s="0"/>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>6519</v>
+        <v>7137</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>6751</v>
+        <v>7369</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>6868</v>
+        <v>7486</v>
       </c>
       <c r="F278" s="0"/>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>6324</v>
+        <v>6942</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>6345</v>
+        <v>6963</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>6520</v>
+        <v>7138</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>6752</v>
+        <v>7370</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>6868</v>
+        <v>7486</v>
       </c>
       <c r="F279" s="0"/>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>6521</v>
+        <v>7139</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>6753</v>
+        <v>7371</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>6868</v>
+        <v>7486</v>
       </c>
       <c r="F280" s="0"/>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>6522</v>
+        <v>7140</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>6754</v>
+        <v>7372</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>6869</v>
+        <v>7487</v>
       </c>
       <c r="F281" s="0"/>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>6523</v>
+        <v>7141</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>6755</v>
+        <v>7373</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>6870</v>
+        <v>7488</v>
       </c>
       <c r="F282" s="0"/>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>6524</v>
+        <v>7142</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>6756</v>
+        <v>7374</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>6871</v>
+        <v>7489</v>
       </c>
       <c r="F283" s="0"/>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>6525</v>
+        <v>7143</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>6757</v>
+        <v>7375</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>6872</v>
+        <v>7490</v>
       </c>
       <c r="F284" s="0"/>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>6526</v>
+        <v>7144</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>6758</v>
+        <v>7376</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>6873</v>
+        <v>7491</v>
       </c>
       <c r="F285" s="0"/>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>6527</v>
+        <v>7145</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>6759</v>
+        <v>7377</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F286" s="0"/>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>6527</v>
+        <v>7145</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>6759</v>
+        <v>7377</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F287" s="0"/>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>6527</v>
+        <v>7145</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>6759</v>
+        <v>7377</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F288" s="0"/>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>6528</v>
+        <v>7146</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>6760</v>
+        <v>7378</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F289" s="0"/>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>6325</v>
+        <v>6943</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>6346</v>
+        <v>6964</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>6528</v>
+        <v>7146</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>6761</v>
+        <v>7379</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F290" s="0"/>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>6326</v>
+        <v>6944</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>6347</v>
+        <v>6965</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>6529</v>
+        <v>7147</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>6762</v>
+        <v>7380</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F291" s="0"/>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>6326</v>
+        <v>6944</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>6347</v>
+        <v>6965</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>6529</v>
+        <v>7147</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>6763</v>
+        <v>7381</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>6874</v>
+        <v>7492</v>
       </c>
       <c r="F292" s="0"/>
     </row>

--- a/Stats/StatsTest.xlsx
+++ b/Stats/StatsTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16738" uniqueCount="7494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18723" uniqueCount="8541">
   <si>
     <t>Player</t>
   </si>
@@ -22497,6 +22497,3147 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>2pt</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>3pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>2 / 2</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Regular Pass</t>
+  </si>
+  <si>
+    <t>Threat Pass</t>
+  </si>
+  <si>
+    <t>Missed Pass</t>
+  </si>
+  <si>
+    <t>shot allowed</t>
+  </si>
+  <si>
+    <t>shot contested</t>
+  </si>
+  <si>
+    <t>Def Reb</t>
+  </si>
+  <si>
+    <t>Off Reb</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off-Ball Screen</t>
+  </si>
+  <si>
+    <t>Screen Assist</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Elbow</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>3 Right Wing</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>2pt</t>
+  </si>
+  <si>
+    <t>2 / 4</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>3pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>2 / 4</t>
+  </si>
+  <si>
+    <t>4 / 4</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>2 / 2</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>2 / 4</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>2 / 2</t>
+  </si>
+  <si>
+    <t>0 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Regular Pass</t>
+  </si>
+  <si>
+    <t>Threat Pass</t>
+  </si>
+  <si>
+    <t>Missed Pass</t>
+  </si>
+  <si>
+    <t>shot allowed</t>
+  </si>
+  <si>
+    <t>shot contested</t>
+  </si>
+  <si>
+    <t>Def Reb</t>
+  </si>
+  <si>
+    <t>Off Reb</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off-Ball Screen</t>
+  </si>
+  <si>
+    <t>Screen Assist</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Elbow</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>3 Right Wing</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Elbow</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>3 Right Wing</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>2pt</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>3pt</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>2 / 2</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>Regular Pass</t>
+  </si>
+  <si>
+    <t>Threat Pass</t>
+  </si>
+  <si>
+    <t>Missed Pass</t>
+  </si>
+  <si>
+    <t>shot allowed</t>
+  </si>
+  <si>
+    <t>shot contested</t>
+  </si>
+  <si>
+    <t>Def Reb</t>
+  </si>
+  <si>
+    <t>Off Reb</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off-Ball Screen</t>
+  </si>
+  <si>
+    <t>Screen Assist</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Tang_Yifeng</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Bob_BKZ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Ma_Liyan</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Michael_CBC</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>Alex_YXY</t>
+  </si>
+  <si>
+    <t>CUBA_LCY</t>
+  </si>
+  <si>
+    <t>Nicole_LXR</t>
+  </si>
+  <si>
+    <t>Chione_XCY</t>
+  </si>
+  <si>
+    <t>Neo_LWQ</t>
+  </si>
+  <si>
+    <t>JimLit_XQH</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Miss Shot</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Make Shot</t>
+  </si>
+  <si>
+    <t>Detail1</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Elbow</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>3 Right Wing</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2 Right Corner</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Layup</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>3 Top</t>
+  </si>
+  <si>
+    <t>Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -22517,7 +25658,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -22555,11 +25696,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -22591,6 +25738,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22625,81 +25778,81 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6876</v>
+        <v>8264</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6887</v>
+        <v>8275</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6897</v>
+        <v>8284</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6906</v>
+        <v>8293</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6917</v>
+        <v>8301</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6919</v>
+        <v>8303</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6920</v>
+        <v>8304</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6921</v>
+        <v>8305</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6922</v>
+        <v>8306</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>6923</v>
+        <v>8307</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>6924</v>
+        <v>8308</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>6925</v>
+        <v>8309</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>6926</v>
+        <v>8310</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>6927</v>
+        <v>8311</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>6928</v>
+        <v>8312</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>6929</v>
+        <v>8313</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>6930</v>
+        <v>8314</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>6931</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6877</v>
+        <v>8265</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6888</v>
+        <v>8276</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6898</v>
+        <v>8285</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6907</v>
+        <v>8294</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F2" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
@@ -22711,16 +25864,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0">
         <v>1</v>
       </c>
       <c r="M2" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -22737,28 +25890,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6878</v>
+        <v>8266</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6889</v>
+        <v>8277</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6898</v>
+        <v>8285</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6908</v>
+        <v>8294</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F3" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -22767,16 +25920,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
         <v>1</v>
       </c>
       <c r="M3" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -22793,25 +25946,25 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6879</v>
+        <v>8267</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6890</v>
+        <v>8278</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6899</v>
+        <v>8285</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6909</v>
+        <v>8295</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F4" s="0">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -22823,16 +25976,16 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0">
         <v>1</v>
       </c>
       <c r="N4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
         <v>1</v>
@@ -22849,25 +26002,25 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6880</v>
+        <v>8268</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6891</v>
+        <v>8279</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6900</v>
+        <v>8286</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6910</v>
+        <v>8296</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F5" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -22905,25 +26058,25 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6881</v>
+        <v>8269</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6892</v>
+        <v>8279</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6901</v>
+        <v>8287</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6911</v>
+        <v>8297</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F6" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -22938,16 +26091,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0">
         <v>2</v>
-      </c>
-      <c r="M6" s="0">
-        <v>5</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -22961,28 +26114,28 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6882</v>
+        <v>8270</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6893</v>
+        <v>8280</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6902</v>
+        <v>8288</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6912</v>
+        <v>8297</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F7" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -23017,22 +26170,22 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6883</v>
+        <v>8271</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6894</v>
+        <v>8281</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6902</v>
+        <v>8289</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6913</v>
+        <v>8297</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F8" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -23047,13 +26200,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
         <v>1</v>
@@ -23073,25 +26226,25 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6884</v>
+        <v>8272</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6894</v>
+        <v>8281</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6903</v>
+        <v>8290</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6914</v>
+        <v>8298</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F9" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -23103,19 +26256,19 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L9" s="0">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0">
         <v>2</v>
       </c>
-      <c r="M9" s="0">
-        <v>3</v>
-      </c>
       <c r="N9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0">
         <v>1</v>
@@ -23129,28 +26282,28 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6885</v>
+        <v>8273</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6895</v>
+        <v>8282</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6904</v>
+        <v>8291</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6915</v>
+        <v>8299</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F10" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -23159,7 +26312,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -23168,7 +26321,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="0">
         <v>1</v>
@@ -23185,28 +26338,28 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6886</v>
+        <v>8274</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6896</v>
+        <v>8283</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6905</v>
+        <v>8292</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6916</v>
+        <v>8300</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6918</v>
+        <v>8302</v>
       </c>
       <c r="F11" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G11" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0">
         <v>0</v>
@@ -23215,22 +26368,22 @@
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0">
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -23245,5274 +26398,1888 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:G89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="true"/>
     <col min="2" max="2" width="12.5703125" customWidth="true"/>
-    <col min="3" max="3" width="9.140625" customWidth="true"/>
-    <col min="4" max="4" width="10.140625" customWidth="true"/>
+    <col min="3" max="3" width="10.42578125" customWidth="true"/>
+    <col min="4" max="4" width="13.5703125" customWidth="true"/>
     <col min="5" max="5" width="7.42578125" customWidth="true"/>
     <col min="6" max="6" width="6.42578125" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6932</v>
+        <v>8316</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6945</v>
+        <v>8338</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6966</v>
+        <v>8412</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7148</v>
+        <v>8468</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7382</v>
+        <v>8537</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7493</v>
+        <v>8539</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8540</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6933</v>
+        <v>8317</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6946</v>
+        <v>8339</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6967</v>
+        <v>8413</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7149</v>
+        <v>8469</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F2" s="0"/>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6933</v>
+        <v>8317</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6946</v>
+        <v>8340</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6967</v>
+        <v>8413</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7149</v>
+        <v>8469</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F3" s="0"/>
+      <c r="G3" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6933</v>
+        <v>8317</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6946</v>
+        <v>8341</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6967</v>
+        <v>8413</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7149</v>
+        <v>8469</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F4" s="0"/>
+      <c r="G4" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6933</v>
+        <v>8317</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6946</v>
+        <v>8342</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6967</v>
+        <v>8414</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7149</v>
+        <v>8470</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F5" s="0"/>
+      <c r="G5" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6933</v>
+        <v>8318</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6946</v>
+        <v>8343</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6967</v>
+        <v>8415</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7149</v>
+        <v>8471</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F6" s="0"/>
+      <c r="G6" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6933</v>
+        <v>8318</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6946</v>
+        <v>8343</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6967</v>
+        <v>8416</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7149</v>
+        <v>8472</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F7" s="0"/>
+      <c r="G7" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6933</v>
+        <v>8319</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6946</v>
+        <v>8344</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6967</v>
+        <v>8417</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7150</v>
+        <v>8473</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F8" s="0"/>
+      <c r="G8" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6933</v>
+        <v>8319</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6946</v>
+        <v>8344</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6967</v>
+        <v>8418</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7151</v>
+        <v>8474</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F9" s="0"/>
+      <c r="G9" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6933</v>
+        <v>8319</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6946</v>
+        <v>8345</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6967</v>
+        <v>8419</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7152</v>
+        <v>8475</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7383</v>
+        <v>8538</v>
       </c>
       <c r="F10" s="0"/>
+      <c r="G10" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6933</v>
+        <v>8320</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6946</v>
+        <v>8346</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6968</v>
+        <v>8420</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7153</v>
+        <v>8476</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7384</v>
+        <v>8538</v>
       </c>
       <c r="F11" s="0"/>
+      <c r="G11" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6933</v>
+        <v>8320</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6946</v>
+        <v>8347</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6969</v>
+        <v>8420</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7154</v>
+        <v>8476</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F12" s="0"/>
+      <c r="G12" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6933</v>
+        <v>8320</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6946</v>
+        <v>8348</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6969</v>
+        <v>8420</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7155</v>
+        <v>8477</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F13" s="0"/>
+      <c r="G13" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6933</v>
+        <v>8320</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6946</v>
+        <v>8349</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6970</v>
+        <v>8420</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7156</v>
+        <v>8478</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F14" s="0"/>
+      <c r="G14" s="0">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6933</v>
+        <v>8320</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6946</v>
+        <v>8350</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6971</v>
+        <v>8421</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7157</v>
+        <v>8479</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F15" s="0"/>
+      <c r="G15" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6933</v>
+        <v>8321</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6946</v>
+        <v>8351</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6971</v>
+        <v>8422</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7157</v>
+        <v>8480</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F16" s="0"/>
+      <c r="G16" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6933</v>
+        <v>8321</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6946</v>
+        <v>8352</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6971</v>
+        <v>8422</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7157</v>
+        <v>8481</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F17" s="0"/>
+      <c r="G17" s="0">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6933</v>
+        <v>8321</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6946</v>
+        <v>8353</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6972</v>
+        <v>8423</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7158</v>
+        <v>8482</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F18" s="0"/>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6946</v>
+        <v>8354</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6973</v>
+        <v>8424</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7159</v>
+        <v>8483</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F19" s="0"/>
+      <c r="G19" s="0">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6946</v>
+        <v>8355</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6974</v>
+        <v>8424</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>7160</v>
+        <v>8483</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F20" s="0"/>
+      <c r="G20" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6946</v>
+        <v>8356</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6975</v>
+        <v>8425</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7161</v>
+        <v>8484</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F21" s="0"/>
+      <c r="G21" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6946</v>
+        <v>8357</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6975</v>
+        <v>8426</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>7161</v>
+        <v>8485</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F22" s="0"/>
+      <c r="G22" s="0">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6946</v>
+        <v>8357</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6975</v>
+        <v>8427</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>7162</v>
+        <v>8486</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F23" s="0"/>
+      <c r="G23" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6946</v>
+        <v>8358</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6975</v>
+        <v>8427</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>7163</v>
+        <v>8486</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F24" s="0"/>
+      <c r="G24" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6933</v>
+        <v>8322</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6946</v>
+        <v>8359</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6976</v>
+        <v>8428</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>7164</v>
+        <v>8487</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>7385</v>
+        <v>8538</v>
       </c>
       <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6933</v>
+        <v>8323</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6947</v>
+        <v>8360</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6977</v>
+        <v>8429</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>7165</v>
+        <v>8488</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>7386</v>
+        <v>8538</v>
       </c>
       <c r="F26" s="0"/>
+      <c r="G26" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6933</v>
+        <v>8323</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>6947</v>
+        <v>8360</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6978</v>
+        <v>8430</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>7166</v>
+        <v>8489</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>7387</v>
+        <v>8538</v>
       </c>
       <c r="F27" s="0"/>
+      <c r="G27" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6947</v>
+        <v>8361</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6979</v>
+        <v>8431</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>7167</v>
+        <v>8490</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>7387</v>
+        <v>8538</v>
       </c>
       <c r="F28" s="0"/>
+      <c r="G28" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>6947</v>
+        <v>8362</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6980</v>
+        <v>8431</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>7168</v>
+        <v>8491</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>7387</v>
+        <v>8538</v>
       </c>
       <c r="F29" s="0"/>
+      <c r="G29" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6947</v>
+        <v>8363</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6980</v>
+        <v>8432</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>7169</v>
+        <v>8492</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>7387</v>
+        <v>8538</v>
       </c>
       <c r="F30" s="0"/>
+      <c r="G30" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6947</v>
+        <v>8364</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6981</v>
+        <v>8433</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>7170</v>
+        <v>8493</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>7388</v>
+        <v>8538</v>
       </c>
       <c r="F31" s="0"/>
+      <c r="G31" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6947</v>
+        <v>8364</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6982</v>
+        <v>8434</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>7171</v>
+        <v>8494</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>7389</v>
+        <v>8538</v>
       </c>
       <c r="F32" s="0"/>
+      <c r="G32" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6947</v>
+        <v>8365</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6983</v>
+        <v>8434</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7172</v>
+        <v>8495</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>7390</v>
+        <v>8538</v>
       </c>
       <c r="F33" s="0"/>
+      <c r="G33" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>6947</v>
+        <v>8365</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6983</v>
+        <v>8434</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7172</v>
+        <v>8496</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>7391</v>
+        <v>8538</v>
       </c>
       <c r="F34" s="0"/>
+      <c r="G34" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6947</v>
+        <v>8366</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>6984</v>
+        <v>8434</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>7173</v>
+        <v>8496</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F35" s="0"/>
+      <c r="G35" s="0">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>6947</v>
+        <v>8367</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6985</v>
+        <v>8434</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>7174</v>
+        <v>8496</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F36" s="0"/>
+      <c r="G36" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>6947</v>
+        <v>8368</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>6986</v>
+        <v>8434</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>7175</v>
+        <v>8497</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F37" s="0"/>
+      <c r="G37" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6933</v>
+        <v>8324</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>6947</v>
+        <v>8369</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>6987</v>
+        <v>8435</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>7176</v>
+        <v>8498</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F38" s="0"/>
+      <c r="G38" s="0">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6933</v>
+        <v>8325</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6947</v>
+        <v>8370</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>6987</v>
+        <v>8436</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>7176</v>
+        <v>8499</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F39" s="0"/>
+      <c r="G39" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6933</v>
+        <v>8325</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6947</v>
+        <v>8370</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>6987</v>
+        <v>8437</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>7177</v>
+        <v>8500</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F40" s="0"/>
+      <c r="G40" s="0">
+        <v>39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6933</v>
+        <v>8325</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6947</v>
+        <v>8371</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>6988</v>
+        <v>8438</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>7178</v>
+        <v>8501</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F41" s="0"/>
+      <c r="G41" s="0">
+        <v>40</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>6947</v>
+        <v>8372</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>6989</v>
+        <v>8439</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>7179</v>
+        <v>8502</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F42" s="0"/>
+      <c r="G42" s="0">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>6947</v>
+        <v>8372</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>6989</v>
+        <v>8440</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>7180</v>
+        <v>8503</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>7392</v>
+        <v>8538</v>
       </c>
       <c r="F43" s="0"/>
+      <c r="G43" s="0">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>6947</v>
+        <v>8373</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>6990</v>
+        <v>8440</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>7181</v>
+        <v>8503</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>7393</v>
+        <v>8538</v>
       </c>
       <c r="F44" s="0"/>
+      <c r="G44" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>6947</v>
+        <v>8374</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>6991</v>
+        <v>8440</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>7182</v>
+        <v>8503</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>7394</v>
+        <v>8538</v>
       </c>
       <c r="F45" s="0"/>
+      <c r="G45" s="0">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>6947</v>
+        <v>8375</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6992</v>
+        <v>8440</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>7183</v>
+        <v>8504</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>7394</v>
+        <v>8538</v>
       </c>
       <c r="F46" s="0"/>
+      <c r="G46" s="0">
+        <v>45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>6947</v>
+        <v>8376</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>6993</v>
+        <v>8440</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>7184</v>
+        <v>8504</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>7395</v>
+        <v>8538</v>
       </c>
       <c r="F47" s="0"/>
+      <c r="G47" s="0">
+        <v>46</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>6947</v>
+        <v>8377</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>6994</v>
+        <v>8440</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>7185</v>
+        <v>8504</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>7396</v>
+        <v>8538</v>
       </c>
       <c r="F48" s="0"/>
+      <c r="G48" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>6947</v>
+        <v>8378</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>6995</v>
+        <v>8440</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>7186</v>
+        <v>8504</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>7396</v>
+        <v>8538</v>
       </c>
       <c r="F49" s="0"/>
+      <c r="G49" s="0">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>6947</v>
+        <v>8379</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>6996</v>
+        <v>8441</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7187</v>
+        <v>8505</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>7396</v>
+        <v>8538</v>
       </c>
       <c r="F50" s="0"/>
+      <c r="G50" s="0">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>6947</v>
+        <v>8379</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6997</v>
+        <v>8442</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>7188</v>
+        <v>8506</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>7397</v>
+        <v>8538</v>
       </c>
       <c r="F51" s="0"/>
+      <c r="G51" s="0">
+        <v>50</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>6948</v>
+        <v>8379</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6998</v>
+        <v>8443</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>7189</v>
+        <v>8507</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F52" s="0"/>
+      <c r="G52" s="0">
+        <v>51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>6948</v>
+        <v>8380</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>6998</v>
+        <v>8443</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>7189</v>
+        <v>8507</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F53" s="0"/>
+      <c r="G53" s="0">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>6948</v>
+        <v>8381</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>6998</v>
+        <v>8443</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>7189</v>
+        <v>8507</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F54" s="0"/>
+      <c r="G54" s="0">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>6948</v>
+        <v>8382</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>6998</v>
+        <v>8443</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>7189</v>
+        <v>8507</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F55" s="0"/>
+      <c r="G55" s="0">
+        <v>54</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>6933</v>
+        <v>8326</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>6948</v>
+        <v>8383</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>6998</v>
+        <v>8443</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>7189</v>
+        <v>8508</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F56" s="0"/>
+      <c r="G56" s="0">
+        <v>55</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>6933</v>
+        <v>8327</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>6948</v>
+        <v>8384</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>6998</v>
+        <v>8443</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>7189</v>
+        <v>8509</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F57" s="0"/>
+      <c r="G57" s="0">
+        <v>56</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>6933</v>
+        <v>8327</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>6948</v>
+        <v>8385</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>6998</v>
+        <v>8444</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>7190</v>
+        <v>8510</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>7398</v>
+        <v>8538</v>
       </c>
       <c r="F58" s="0"/>
+      <c r="G58" s="0">
+        <v>57</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>6933</v>
+        <v>8328</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>6948</v>
+        <v>8386</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>6999</v>
+        <v>8445</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>7191</v>
+        <v>8511</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>7399</v>
+        <v>8538</v>
       </c>
       <c r="F59" s="0"/>
+      <c r="G59" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>6933</v>
+        <v>8328</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>6948</v>
+        <v>8387</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7000</v>
+        <v>8445</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>7192</v>
+        <v>8511</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F60" s="0"/>
+      <c r="G60" s="0">
+        <v>59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>6933</v>
+        <v>8328</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>6948</v>
+        <v>8388</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>7001</v>
+        <v>8445</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>7193</v>
+        <v>8511</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F61" s="0"/>
+      <c r="G61" s="0">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>6933</v>
+        <v>8328</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>6948</v>
+        <v>8389</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>7001</v>
+        <v>8446</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>7193</v>
+        <v>8512</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F62" s="0"/>
+      <c r="G62" s="0">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>6933</v>
+        <v>8329</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>6948</v>
+        <v>8390</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>7002</v>
+        <v>8447</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>7194</v>
+        <v>8513</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F63" s="0"/>
+      <c r="G63" s="0">
+        <v>62</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>6933</v>
+        <v>8329</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>6948</v>
+        <v>8390</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>7003</v>
+        <v>8448</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>7195</v>
+        <v>8514</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F64" s="0"/>
+      <c r="G64" s="0">
+        <v>63</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>6933</v>
+        <v>8329</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>6948</v>
+        <v>8391</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>7003</v>
+        <v>8448</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>7196</v>
+        <v>8514</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F65" s="0"/>
+      <c r="G65" s="0">
+        <v>64</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>6933</v>
+        <v>8329</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>6948</v>
+        <v>8392</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>7004</v>
+        <v>8448</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>7197</v>
+        <v>8515</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F66" s="0"/>
+      <c r="G66" s="0">
+        <v>65</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>6933</v>
+        <v>8329</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>6948</v>
+        <v>8393</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>7005</v>
+        <v>8449</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>7198</v>
+        <v>8516</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F67" s="0"/>
+      <c r="G67" s="0">
+        <v>66</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>6933</v>
+        <v>8330</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>6948</v>
+        <v>8394</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>7005</v>
+        <v>8450</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>7199</v>
+        <v>8517</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F68" s="0"/>
+      <c r="G68" s="0">
+        <v>67</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>6933</v>
+        <v>8330</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>6948</v>
+        <v>8395</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7005</v>
+        <v>8451</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>7200</v>
+        <v>8518</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F69" s="0"/>
+      <c r="G69" s="0">
+        <v>68</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>6933</v>
+        <v>8331</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>6948</v>
+        <v>8396</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>7005</v>
+        <v>8452</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>7201</v>
+        <v>8519</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F70" s="0"/>
+      <c r="G70" s="0">
+        <v>69</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>6933</v>
+        <v>8331</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>6948</v>
+        <v>8396</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>7005</v>
+        <v>8453</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>7201</v>
+        <v>8520</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F71" s="0"/>
+      <c r="G71" s="0">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>6933</v>
+        <v>8331</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>6948</v>
+        <v>8397</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>7005</v>
+        <v>8453</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>7202</v>
+        <v>8520</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F72" s="0"/>
+      <c r="G72" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>6933</v>
+        <v>8331</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>6948</v>
+        <v>8398</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>7005</v>
+        <v>8454</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>7203</v>
+        <v>8521</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F73" s="0"/>
+      <c r="G73" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>6933</v>
+        <v>8332</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>6948</v>
+        <v>8399</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>7005</v>
+        <v>8455</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>7203</v>
+        <v>8522</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F74" s="0"/>
+      <c r="G74" s="0">
+        <v>73</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>6933</v>
+        <v>8332</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>6948</v>
+        <v>8399</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>7006</v>
+        <v>8456</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>7204</v>
+        <v>8523</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F75" s="0"/>
+      <c r="G75" s="0">
+        <v>74</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>6933</v>
+        <v>8332</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>6948</v>
+        <v>8400</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>7007</v>
+        <v>8457</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>7205</v>
+        <v>8524</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>7400</v>
+        <v>8538</v>
       </c>
       <c r="F76" s="0"/>
+      <c r="G76" s="0">
+        <v>75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>6933</v>
+        <v>8333</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>6948</v>
+        <v>8401</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>7008</v>
+        <v>8458</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>7206</v>
+        <v>8525</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>7401</v>
+        <v>8538</v>
       </c>
       <c r="F77" s="0"/>
+      <c r="G77" s="0">
+        <v>76</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>6933</v>
+        <v>8333</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>6948</v>
+        <v>8402</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>7008</v>
+        <v>8458</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>7207</v>
+        <v>8525</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>7401</v>
+        <v>8538</v>
       </c>
       <c r="F78" s="0"/>
+      <c r="G78" s="0">
+        <v>77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>6934</v>
+        <v>8333</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>6949</v>
+        <v>8403</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>7009</v>
+        <v>8459</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>7208</v>
+        <v>8526</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>7402</v>
+        <v>8538</v>
       </c>
       <c r="F79" s="0"/>
+      <c r="G79" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>6934</v>
+        <v>8334</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>6949</v>
+        <v>8404</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>7010</v>
+        <v>8460</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>7209</v>
+        <v>8527</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>7403</v>
+        <v>8538</v>
       </c>
       <c r="F80" s="0"/>
+      <c r="G80" s="0">
+        <v>79</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>6934</v>
+        <v>8334</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>6949</v>
+        <v>8404</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>7011</v>
+        <v>8461</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>7210</v>
+        <v>8528</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F81" s="0"/>
+      <c r="G81" s="0">
+        <v>80</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>6934</v>
+        <v>8335</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>6949</v>
+        <v>8405</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>7011</v>
+        <v>8462</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>7211</v>
+        <v>8529</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F82" s="0"/>
+      <c r="G82" s="0">
+        <v>81</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>6934</v>
+        <v>8336</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>6949</v>
+        <v>8406</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>7011</v>
+        <v>8463</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>7212</v>
+        <v>8530</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F83" s="0"/>
+      <c r="G83" s="0">
+        <v>82</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>6934</v>
+        <v>8336</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>6949</v>
+        <v>8406</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>7011</v>
+        <v>8464</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>7212</v>
+        <v>8531</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F84" s="0"/>
+      <c r="G84" s="0">
+        <v>83</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>6934</v>
+        <v>8336</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>6949</v>
+        <v>8407</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>7011</v>
+        <v>8464</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>7212</v>
+        <v>8532</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F85" s="0"/>
+      <c r="G85" s="0">
+        <v>84</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>6934</v>
+        <v>8336</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>6949</v>
+        <v>8408</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>7011</v>
+        <v>8465</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>7212</v>
+        <v>8533</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F86" s="0"/>
+      <c r="G86" s="0">
+        <v>85</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>6934</v>
+        <v>8337</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>6949</v>
+        <v>8409</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>7011</v>
+        <v>8466</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>7212</v>
+        <v>8534</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>7404</v>
+        <v>8538</v>
       </c>
       <c r="F87" s="0"/>
+      <c r="G87" s="0">
+        <v>86</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>6934</v>
+        <v>8337</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>6949</v>
+        <v>8410</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>7012</v>
+        <v>8466</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>7213</v>
+        <v>8535</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>7405</v>
+        <v>8538</v>
       </c>
       <c r="F88" s="0"/>
+      <c r="G88" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>6934</v>
+        <v>8337</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>6949</v>
+        <v>8411</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>7013</v>
+        <v>8467</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>7214</v>
+        <v>8536</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>7406</v>
+        <v>8538</v>
       </c>
       <c r="F89" s="0"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>7013</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>7214</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>7406</v>
-      </c>
-      <c r="F90" s="0"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>7014</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>7215</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>7407</v>
-      </c>
-      <c r="F91" s="0"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>7014</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>7216</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>7407</v>
-      </c>
-      <c r="F92" s="0"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>7015</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>7217</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>7408</v>
-      </c>
-      <c r="F93" s="0"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>7015</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>7217</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>7408</v>
-      </c>
-      <c r="F94" s="0"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>7016</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>7218</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>7409</v>
-      </c>
-      <c r="F95" s="0"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>7016</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>7219</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>7410</v>
-      </c>
-      <c r="F96" s="0"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>6949</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>7016</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>7220</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>7411</v>
-      </c>
-      <c r="F97" s="0"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>7017</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>7221</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>7412</v>
-      </c>
-      <c r="F98" s="0"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>7017</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>7222</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>7412</v>
-      </c>
-      <c r="F99" s="0"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>7018</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>7223</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>7412</v>
-      </c>
-      <c r="F100" s="0"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>7019</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>7224</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>7413</v>
-      </c>
-      <c r="F101" s="0"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>7020</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>7225</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>7414</v>
-      </c>
-      <c r="F102" s="0"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>7021</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>7226</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>7415</v>
-      </c>
-      <c r="F103" s="0"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>7021</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>7227</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>7415</v>
-      </c>
-      <c r="F104" s="0"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>7022</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>7228</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>7416</v>
-      </c>
-      <c r="F105" s="0"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>7023</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>7229</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>7417</v>
-      </c>
-      <c r="F106" s="0"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>7023</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>7230</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>7417</v>
-      </c>
-      <c r="F107" s="0"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>7023</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>7231</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>7418</v>
-      </c>
-      <c r="F108" s="0"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>7024</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>7232</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>7419</v>
-      </c>
-      <c r="F109" s="0"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>7024</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>7232</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>7419</v>
-      </c>
-      <c r="F110" s="0"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>7025</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>7233</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>7420</v>
-      </c>
-      <c r="F111" s="0"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>7026</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>7234</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>7421</v>
-      </c>
-      <c r="F112" s="0"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>7026</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>7235</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>7421</v>
-      </c>
-      <c r="F113" s="0"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>7027</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>7236</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>7422</v>
-      </c>
-      <c r="F114" s="0"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>7027</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>7237</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>7423</v>
-      </c>
-      <c r="F115" s="0"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>7028</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>7238</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>7424</v>
-      </c>
-      <c r="F116" s="0"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>7028</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>7239</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>7424</v>
-      </c>
-      <c r="F117" s="0"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
-        <v>6934</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>6950</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>7029</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>7240</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>7425</v>
-      </c>
-      <c r="F118" s="0"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>7030</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>7241</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>7426</v>
-      </c>
-      <c r="F119" s="0"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>7031</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>7242</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>7427</v>
-      </c>
-      <c r="F120" s="0"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>7032</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>7243</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>7428</v>
-      </c>
-      <c r="F121" s="0"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>7032</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>7243</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>7428</v>
-      </c>
-      <c r="F122" s="0"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>7032</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>7243</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>7428</v>
-      </c>
-      <c r="F123" s="0"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>7032</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>7243</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>7428</v>
-      </c>
-      <c r="F124" s="0"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>7032</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>7243</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>7428</v>
-      </c>
-      <c r="F125" s="0"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>7033</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>7244</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>7429</v>
-      </c>
-      <c r="F126" s="0"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>7034</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>7245</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>7430</v>
-      </c>
-      <c r="F127" s="0"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>7034</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>7245</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>7430</v>
-      </c>
-      <c r="F128" s="0"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
-        <v>6935</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>6951</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>7034</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>7245</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>7430</v>
-      </c>
-      <c r="F129" s="0"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>7034</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>7245</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>7430</v>
-      </c>
-      <c r="F130" s="0"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>7035</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>7246</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>7431</v>
-      </c>
-      <c r="F131" s="0"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>7036</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>7247</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>7432</v>
-      </c>
-      <c r="F132" s="0"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>7037</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>7248</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>7433</v>
-      </c>
-      <c r="F133" s="0"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>7037</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>7249</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>7433</v>
-      </c>
-      <c r="F134" s="0"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>7037</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>7250</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>7434</v>
-      </c>
-      <c r="F135" s="0"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>7038</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>7251</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>7435</v>
-      </c>
-      <c r="F136" s="0"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>7039</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>7252</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>7435</v>
-      </c>
-      <c r="F137" s="0"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>7040</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>7253</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>7435</v>
-      </c>
-      <c r="F138" s="0"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>6952</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>7041</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>7254</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>7435</v>
-      </c>
-      <c r="F139" s="0"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>7042</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>7255</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>7436</v>
-      </c>
-      <c r="F140" s="0"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>7043</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>7256</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>7437</v>
-      </c>
-      <c r="F141" s="0"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>7044</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>7257</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>7437</v>
-      </c>
-      <c r="F142" s="0"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>7045</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>7258</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>7437</v>
-      </c>
-      <c r="F143" s="0"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>7046</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>7259</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>7438</v>
-      </c>
-      <c r="F144" s="0"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>7047</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>7260</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>7439</v>
-      </c>
-      <c r="F145" s="0"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>7047</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>7260</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>7439</v>
-      </c>
-      <c r="F146" s="0"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>7048</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>7261</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>7439</v>
-      </c>
-      <c r="F147" s="0"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>7049</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>7262</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>7440</v>
-      </c>
-      <c r="F148" s="0"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>7050</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>7263</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>7441</v>
-      </c>
-      <c r="F149" s="0"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>7051</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>7264</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>7441</v>
-      </c>
-      <c r="F150" s="0"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>7052</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>7265</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>7442</v>
-      </c>
-      <c r="F151" s="0"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>7053</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>7266</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>7443</v>
-      </c>
-      <c r="F152" s="0"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>7053</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>7267</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>7443</v>
-      </c>
-      <c r="F153" s="0"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>7054</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>7268</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>7443</v>
-      </c>
-      <c r="F154" s="0"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>7055</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>7269</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>7443</v>
-      </c>
-      <c r="F155" s="0"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>7056</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>7270</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>7443</v>
-      </c>
-      <c r="F156" s="0"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>7057</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>7271</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>7444</v>
-      </c>
-      <c r="F157" s="0"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>7058</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>7272</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F158" s="0"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>7058</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>7272</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F159" s="0"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>7059</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>7273</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F160" s="0"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>7060</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>7274</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F161" s="0"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>7060</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>7274</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F162" s="0"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>7061</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>7275</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F163" s="0"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>7062</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>7276</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F164" s="0"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>7063</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>7277</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F165" s="0"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>7064</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>7278</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F166" s="0"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>7064</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>7279</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>7445</v>
-      </c>
-      <c r="F167" s="0"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
-        <v>6936</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>6953</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>7065</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>7280</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>7446</v>
-      </c>
-      <c r="F168" s="0"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>7066</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>7281</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>7447</v>
-      </c>
-      <c r="F169" s="0"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>7066</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>7281</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>7447</v>
-      </c>
-      <c r="F170" s="0"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>7067</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>7282</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>7448</v>
-      </c>
-      <c r="F171" s="0"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>7068</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>7283</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>7449</v>
-      </c>
-      <c r="F172" s="0"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>7068</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>7283</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>7449</v>
-      </c>
-      <c r="F173" s="0"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>7068</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>7283</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>7449</v>
-      </c>
-      <c r="F174" s="0"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>7069</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>7284</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>7450</v>
-      </c>
-      <c r="F175" s="0"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>7070</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>7285</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>7451</v>
-      </c>
-      <c r="F176" s="0"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>7071</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>7286</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>7451</v>
-      </c>
-      <c r="F177" s="0"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>7072</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>7287</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>7451</v>
-      </c>
-      <c r="F178" s="0"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>7072</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>7287</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>7451</v>
-      </c>
-      <c r="F179" s="0"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>7072</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>7287</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>7451</v>
-      </c>
-      <c r="F180" s="0"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>7072</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>7287</v>
-      </c>
-      <c r="E181" s="0" t="s">
-        <v>7451</v>
-      </c>
-      <c r="F181" s="0"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>7073</v>
-      </c>
-      <c r="D182" s="0" t="s">
-        <v>7288</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>7452</v>
-      </c>
-      <c r="F182" s="0"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>7074</v>
-      </c>
-      <c r="D183" s="0" t="s">
-        <v>7289</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>7453</v>
-      </c>
-      <c r="F183" s="0"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>7075</v>
-      </c>
-      <c r="D184" s="0" t="s">
-        <v>7290</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>7453</v>
-      </c>
-      <c r="F184" s="0"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>7076</v>
-      </c>
-      <c r="D185" s="0" t="s">
-        <v>7291</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>7454</v>
-      </c>
-      <c r="F185" s="0"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>7076</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>7292</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>7455</v>
-      </c>
-      <c r="F186" s="0"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>6937</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>6954</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>7077</v>
-      </c>
-      <c r="D187" s="0" t="s">
-        <v>7293</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>7456</v>
-      </c>
-      <c r="F187" s="0"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>7078</v>
-      </c>
-      <c r="D188" s="0" t="s">
-        <v>7294</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>7456</v>
-      </c>
-      <c r="F188" s="0"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>7079</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>7295</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>7456</v>
-      </c>
-      <c r="F189" s="0"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>7079</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>7295</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>7456</v>
-      </c>
-      <c r="F190" s="0"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>7079</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>7296</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>7456</v>
-      </c>
-      <c r="F191" s="0"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>7080</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>7297</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>7457</v>
-      </c>
-      <c r="F192" s="0"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>7081</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>7298</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>7458</v>
-      </c>
-      <c r="F193" s="0"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>7082</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>7299</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>7458</v>
-      </c>
-      <c r="F194" s="0"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>7083</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>7300</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>7458</v>
-      </c>
-      <c r="F195" s="0"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>7084</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>7301</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>7458</v>
-      </c>
-      <c r="F196" s="0"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>7085</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>7302</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>7458</v>
-      </c>
-      <c r="F197" s="0"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>7086</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>7303</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>7459</v>
-      </c>
-      <c r="F198" s="0"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>7087</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>7304</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>7460</v>
-      </c>
-      <c r="F199" s="0"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>7087</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>7305</v>
-      </c>
-      <c r="E200" s="0" t="s">
-        <v>7460</v>
-      </c>
-      <c r="F200" s="0"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>7087</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>7306</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>7460</v>
-      </c>
-      <c r="F201" s="0"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>7087</v>
-      </c>
-      <c r="D202" s="0" t="s">
-        <v>7307</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>7460</v>
-      </c>
-      <c r="F202" s="0"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>6938</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>6955</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>7087</v>
-      </c>
-      <c r="D203" s="0" t="s">
-        <v>7307</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>7460</v>
-      </c>
-      <c r="F203" s="0"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>7087</v>
-      </c>
-      <c r="D204" s="0" t="s">
-        <v>7307</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>7460</v>
-      </c>
-      <c r="F204" s="0"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>7088</v>
-      </c>
-      <c r="D205" s="0" t="s">
-        <v>7308</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>7461</v>
-      </c>
-      <c r="F205" s="0"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>7089</v>
-      </c>
-      <c r="D206" s="0" t="s">
-        <v>7309</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F206" s="0"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>7089</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>7310</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F207" s="0"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>7089</v>
-      </c>
-      <c r="D208" s="0" t="s">
-        <v>7311</v>
-      </c>
-      <c r="E208" s="0" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F208" s="0"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>7089</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>7311</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F209" s="0"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>7089</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>7311</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F210" s="0"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>7089</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>7311</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F211" s="0"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>7090</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>7312</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>7463</v>
-      </c>
-      <c r="F212" s="0"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>7091</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>7313</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F213" s="0"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>7092</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>7314</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F214" s="0"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>6956</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>7093</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>7315</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F215" s="0"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>6957</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>7093</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>7315</v>
-      </c>
-      <c r="E216" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F216" s="0"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>6957</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>7094</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>7316</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F217" s="0"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>6957</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>7095</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>7317</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F218" s="0"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>6957</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>7095</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>7318</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F219" s="0"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>6957</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>7095</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>7319</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F220" s="0"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>6957</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>7095</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>7320</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F221" s="0"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>7095</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>7321</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F222" s="0"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>7096</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>7322</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F223" s="0"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>7097</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>7323</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>7464</v>
-      </c>
-      <c r="F224" s="0"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>7098</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>7324</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>7465</v>
-      </c>
-      <c r="F225" s="0"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>7099</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>7325</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>7466</v>
-      </c>
-      <c r="F226" s="0"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>7099</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>7326</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>7466</v>
-      </c>
-      <c r="F227" s="0"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>7099</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>7327</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>7466</v>
-      </c>
-      <c r="F228" s="0"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>7099</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>7328</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>7466</v>
-      </c>
-      <c r="F229" s="0"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>7099</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>7328</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>7466</v>
-      </c>
-      <c r="F230" s="0"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>7100</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>7329</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>7467</v>
-      </c>
-      <c r="F231" s="0"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>7101</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>7330</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>7468</v>
-      </c>
-      <c r="F232" s="0"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>7102</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>7331</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>7469</v>
-      </c>
-      <c r="F233" s="0"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>6939</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>7103</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>7332</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>7470</v>
-      </c>
-      <c r="F234" s="0"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>7103</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>7333</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>7470</v>
-      </c>
-      <c r="F235" s="0"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>7104</v>
-      </c>
-      <c r="D236" s="0" t="s">
-        <v>7334</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>7471</v>
-      </c>
-      <c r="F236" s="0"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>7105</v>
-      </c>
-      <c r="D237" s="0" t="s">
-        <v>7335</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>7472</v>
-      </c>
-      <c r="F237" s="0"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>7106</v>
-      </c>
-      <c r="D238" s="0" t="s">
-        <v>7336</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>7473</v>
-      </c>
-      <c r="F238" s="0"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>7107</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>7337</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>7474</v>
-      </c>
-      <c r="F239" s="0"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>7108</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>7338</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>7474</v>
-      </c>
-      <c r="F240" s="0"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>7109</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>7339</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>7474</v>
-      </c>
-      <c r="F241" s="0"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>7110</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>7340</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>7475</v>
-      </c>
-      <c r="F242" s="0"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>7111</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>7341</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>7476</v>
-      </c>
-      <c r="F243" s="0"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>6959</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>7112</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>7342</v>
-      </c>
-      <c r="E244" s="0" t="s">
-        <v>7476</v>
-      </c>
-      <c r="F244" s="0"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>6960</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>7112</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>7342</v>
-      </c>
-      <c r="E245" s="0" t="s">
-        <v>7476</v>
-      </c>
-      <c r="F245" s="0"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>6960</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>7113</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>7343</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>7477</v>
-      </c>
-      <c r="F246" s="0"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>6960</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>7114</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>7344</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>7478</v>
-      </c>
-      <c r="F247" s="0"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>6960</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>7115</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>7345</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>7478</v>
-      </c>
-      <c r="F248" s="0"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>6960</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>7115</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>7345</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>7478</v>
-      </c>
-      <c r="F249" s="0"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
-        <v>6940</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>6960</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>7116</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>7346</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>7479</v>
-      </c>
-      <c r="F250" s="0"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>7117</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>7347</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>7480</v>
-      </c>
-      <c r="F251" s="0"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>7117</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>7347</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>7480</v>
-      </c>
-      <c r="F252" s="0"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>7117</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>7347</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>7480</v>
-      </c>
-      <c r="F253" s="0"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>7118</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>7348</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>7481</v>
-      </c>
-      <c r="F254" s="0"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>7119</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>7349</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>7482</v>
-      </c>
-      <c r="F255" s="0"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>7120</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>7350</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>7482</v>
-      </c>
-      <c r="F256" s="0"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>7120</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>7350</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>7482</v>
-      </c>
-      <c r="F257" s="0"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>7120</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>7350</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>7482</v>
-      </c>
-      <c r="F258" s="0"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>7121</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>7351</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>7483</v>
-      </c>
-      <c r="F259" s="0"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>7122</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>7352</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F260" s="0"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>7123</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>7353</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F261" s="0"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>7124</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>7354</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F262" s="0"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
-        <v>6941</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>6961</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>7125</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>7355</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F263" s="0"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>6962</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>7126</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>7356</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F264" s="0"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>6962</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>7127</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>7357</v>
-      </c>
-      <c r="E265" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F265" s="0"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>6962</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>7128</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>7358</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F266" s="0"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>6962</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>7128</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>7358</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F267" s="0"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>7129</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>7359</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F268" s="0"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>7130</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>7360</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F269" s="0"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>7131</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>7361</v>
-      </c>
-      <c r="E270" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F270" s="0"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>7132</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>7362</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F271" s="0"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>7133</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>7363</v>
-      </c>
-      <c r="E272" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F272" s="0"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>7134</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>7364</v>
-      </c>
-      <c r="E273" s="0" t="s">
-        <v>7484</v>
-      </c>
-      <c r="F273" s="0"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>7135</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>7365</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>7485</v>
-      </c>
-      <c r="F274" s="0"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>7135</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>7366</v>
-      </c>
-      <c r="E275" s="0" t="s">
-        <v>7485</v>
-      </c>
-      <c r="F275" s="0"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>7136</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>7367</v>
-      </c>
-      <c r="E276" s="0" t="s">
-        <v>7486</v>
-      </c>
-      <c r="F276" s="0"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>7136</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>7368</v>
-      </c>
-      <c r="E277" s="0" t="s">
-        <v>7486</v>
-      </c>
-      <c r="F277" s="0"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>7137</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>7369</v>
-      </c>
-      <c r="E278" s="0" t="s">
-        <v>7486</v>
-      </c>
-      <c r="F278" s="0"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="0" t="s">
-        <v>6942</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>6963</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>7138</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>7370</v>
-      </c>
-      <c r="E279" s="0" t="s">
-        <v>7486</v>
-      </c>
-      <c r="F279" s="0"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C280" s="0" t="s">
-        <v>7139</v>
-      </c>
-      <c r="D280" s="0" t="s">
-        <v>7371</v>
-      </c>
-      <c r="E280" s="0" t="s">
-        <v>7486</v>
-      </c>
-      <c r="F280" s="0"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>7140</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>7372</v>
-      </c>
-      <c r="E281" s="0" t="s">
-        <v>7487</v>
-      </c>
-      <c r="F281" s="0"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>7141</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>7373</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>7488</v>
-      </c>
-      <c r="F282" s="0"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>7142</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>7374</v>
-      </c>
-      <c r="E283" s="0" t="s">
-        <v>7489</v>
-      </c>
-      <c r="F283" s="0"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>7143</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>7375</v>
-      </c>
-      <c r="E284" s="0" t="s">
-        <v>7490</v>
-      </c>
-      <c r="F284" s="0"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C285" s="0" t="s">
-        <v>7144</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>7376</v>
-      </c>
-      <c r="E285" s="0" t="s">
-        <v>7491</v>
-      </c>
-      <c r="F285" s="0"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>7145</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>7377</v>
-      </c>
-      <c r="E286" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F286" s="0"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C287" s="0" t="s">
-        <v>7145</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>7377</v>
-      </c>
-      <c r="E287" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F287" s="0"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>7145</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>7377</v>
-      </c>
-      <c r="E288" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F288" s="0"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>7146</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>7378</v>
-      </c>
-      <c r="E289" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F289" s="0"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="0" t="s">
-        <v>6943</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>6964</v>
-      </c>
-      <c r="C290" s="0" t="s">
-        <v>7146</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>7379</v>
-      </c>
-      <c r="E290" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F290" s="0"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="0" t="s">
-        <v>6944</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>6965</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>7147</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>7380</v>
-      </c>
-      <c r="E291" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F291" s="0"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="0" t="s">
-        <v>6944</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>6965</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>7147</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>7381</v>
-      </c>
-      <c r="E292" s="0" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F292" s="0"/>
+      <c r="G89" s="0">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
